--- a/data/Skills and Perks.xlsx
+++ b/data/Skills and Perks.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\nclassen\Documents\Personal files\Space RPG\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\nclassen\Documents\GitHub\kaleidorpg\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6C48F65F-01B8-4E87-A080-82E8219DDE3C}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FC865D3C-2DD8-4798-BD19-54DBDE69CD48}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView minimized="1" xWindow="390" yWindow="390" windowWidth="17160" windowHeight="12390" xr2:uid="{B12B2A8F-1441-4AA1-9B77-AB17CC45E638}"/>
+    <workbookView xWindow="11970" yWindow="960" windowWidth="16815" windowHeight="12135" activeTab="2" xr2:uid="{B12B2A8F-1441-4AA1-9B77-AB17CC45E638}"/>
   </bookViews>
   <sheets>
     <sheet name="Basic Attacks" sheetId="1" r:id="rId1"/>
@@ -774,9 +774,6 @@
     <t>Knight/Warder</t>
   </si>
   <si>
-    <t>May attack twice. Can only add 1 stack of bleed damage per turn.</t>
-  </si>
-  <si>
     <t>Proficiency Mod = 0
 Action = Bash</t>
   </si>
@@ -787,9 +784,6 @@
     <t>If shield is equipped, may attack with it for 1d8 damage. Enemy must make a Con saving throw of 12 plus your skill mod, on faliure they are staggered for 1 turn.</t>
   </si>
   <si>
-    <t>After dealing damage with a blunt weapon, enemy rolls a Con saving throw of 10 plus your skill mod. On a failure, enemy is staggered for a turn.</t>
-  </si>
-  <si>
     <t>Action: Heavy strike</t>
   </si>
   <si>
@@ -1698,6 +1692,12 @@
   </si>
   <si>
     <t>Sidearm</t>
+  </si>
+  <si>
+    <t>May attack twice. Maximum bleed stacks increased to 5.</t>
+  </si>
+  <si>
+    <t>After dealing damage with a blunt weapon, enemy rolls a Con saving throw of 8 plus your skill mod. On a failure, enemy is staggered for a turn.</t>
   </si>
 </sst>
 </file>
@@ -1739,7 +1739,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="9">
+  <fills count="8">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -1782,12 +1782,6 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="0" tint="-0.14999847407452621"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
   </fills>
   <borders count="1">
     <border>
@@ -1801,7 +1795,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="17">
+  <cellXfs count="16">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
@@ -1832,9 +1826,6 @@
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -2187,7 +2178,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B579CD42-BFA2-44CF-B060-7A24C7CB8FB1}">
   <dimension ref="A1:N37"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A9" workbookViewId="0">
+    <sheetView topLeftCell="A9" workbookViewId="0">
       <selection activeCell="A21" sqref="A21"/>
     </sheetView>
   </sheetViews>
@@ -2507,7 +2498,7 @@
     </row>
     <row r="11" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>426</v>
+        <v>424</v>
       </c>
       <c r="B11" s="2">
         <v>2</v>
@@ -2680,7 +2671,7 @@
     </row>
     <row r="16" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
-        <v>544</v>
+        <v>542</v>
       </c>
       <c r="B16" s="2">
         <v>2</v>
@@ -2723,7 +2714,7 @@
     </row>
     <row r="17" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
-        <v>440</v>
+        <v>438</v>
       </c>
       <c r="B17" s="2">
         <v>3</v>
@@ -2804,7 +2795,7 @@
     </row>
     <row r="20" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
-        <v>546</v>
+        <v>544</v>
       </c>
       <c r="B20" s="2">
         <v>1</v>
@@ -3323,7 +3314,7 @@
     </row>
     <row r="35" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
-        <v>473</v>
+        <v>471</v>
       </c>
       <c r="B35" s="2">
         <v>1</v>
@@ -3465,8 +3456,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{70DF9055-FED5-448D-AEAB-21458D1F8766}">
   <dimension ref="A1:O55"/>
   <sheetViews>
-    <sheetView topLeftCell="C29" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="I37" sqref="I37"/>
+    <sheetView topLeftCell="A9" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="F12" sqref="A12:F13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3570,7 +3561,6 @@
       <c r="K2" s="9" t="s">
         <v>155</v>
       </c>
-      <c r="L2" s="16"/>
       <c r="N2" s="9" t="s">
         <v>234</v>
       </c>
@@ -3610,13 +3600,13 @@
         <v>220</v>
       </c>
       <c r="K3" s="9" t="s">
+        <v>159</v>
+      </c>
+      <c r="L3" s="9" t="s">
         <v>158</v>
       </c>
-      <c r="L3" s="9" t="s">
+      <c r="M3" s="9" t="s">
         <v>215</v>
-      </c>
-      <c r="M3" s="9" t="s">
-        <v>159</v>
       </c>
       <c r="N3" s="9" t="s">
         <v>216</v>
@@ -3633,7 +3623,7 @@
         <v>48</v>
       </c>
       <c r="C4" s="8" t="s">
-        <v>517</v>
+        <v>515</v>
       </c>
       <c r="D4" s="8" t="s">
         <v>51</v>
@@ -3645,19 +3635,19 @@
         <v>73</v>
       </c>
       <c r="G4" s="9" t="s">
-        <v>414</v>
+        <v>412</v>
       </c>
       <c r="H4" s="9" t="s">
         <v>186</v>
       </c>
       <c r="I4" s="9" t="s">
-        <v>418</v>
+        <v>416</v>
       </c>
       <c r="J4" s="9" t="s">
         <v>219</v>
       </c>
       <c r="K4" s="9" t="s">
-        <v>518</v>
+        <v>516</v>
       </c>
       <c r="L4" s="9" t="s">
         <v>185</v>
@@ -3669,7 +3659,7 @@
         <v>185</v>
       </c>
       <c r="O4" s="9" t="s">
-        <v>352</v>
+        <v>350</v>
       </c>
     </row>
     <row r="5" spans="1:15" ht="60" x14ac:dyDescent="0.25">
@@ -3692,25 +3682,25 @@
         <v>73</v>
       </c>
       <c r="G5" s="9" t="s">
-        <v>414</v>
+        <v>412</v>
       </c>
       <c r="H5" s="9" t="s">
         <v>186</v>
       </c>
       <c r="I5" s="9" t="s">
-        <v>418</v>
+        <v>416</v>
       </c>
       <c r="J5" s="9" t="s">
         <v>221</v>
       </c>
       <c r="K5" s="9" t="s">
-        <v>541</v>
+        <v>539</v>
       </c>
       <c r="L5" s="9" t="s">
         <v>185</v>
       </c>
       <c r="M5" s="9" t="s">
-        <v>348</v>
+        <v>346</v>
       </c>
       <c r="N5" s="9" t="s">
         <v>185</v>
@@ -3792,7 +3782,7 @@
         <v>224</v>
       </c>
       <c r="K7" s="9" t="s">
-        <v>520</v>
+        <v>518</v>
       </c>
       <c r="M7" s="9" t="s">
         <v>212</v>
@@ -3821,7 +3811,7 @@
         <v>217</v>
       </c>
       <c r="G8" s="9" t="s">
-        <v>543</v>
+        <v>541</v>
       </c>
       <c r="H8" s="9" t="s">
         <v>148</v>
@@ -3833,13 +3823,13 @@
         <v>219</v>
       </c>
       <c r="K8" s="9" t="s">
-        <v>272</v>
+        <v>270</v>
       </c>
       <c r="L8" s="9" t="s">
-        <v>267</v>
+        <v>265</v>
       </c>
       <c r="O8" s="9" t="s">
-        <v>268</v>
+        <v>266</v>
       </c>
     </row>
     <row r="9" spans="1:15" ht="45" x14ac:dyDescent="0.25">
@@ -3862,7 +3852,7 @@
         <v>217</v>
       </c>
       <c r="G9" s="9" t="s">
-        <v>543</v>
+        <v>541</v>
       </c>
       <c r="H9" s="9" t="s">
         <v>148</v>
@@ -3874,13 +3864,13 @@
         <v>223</v>
       </c>
       <c r="K9" s="9" t="s">
-        <v>273</v>
+        <v>271</v>
       </c>
       <c r="L9" s="9" t="s">
-        <v>266</v>
+        <v>264</v>
       </c>
       <c r="M9" s="9" t="s">
-        <v>387</v>
+        <v>385</v>
       </c>
     </row>
     <row r="10" spans="1:15" ht="105" x14ac:dyDescent="0.25">
@@ -3900,22 +3890,22 @@
         <v>236</v>
       </c>
       <c r="F10" s="14" t="s">
-        <v>423</v>
+        <v>421</v>
       </c>
       <c r="G10" s="9" t="s">
+        <v>413</v>
+      </c>
+      <c r="H10" s="9" t="s">
+        <v>521</v>
+      </c>
+      <c r="I10" s="9" t="s">
         <v>415</v>
-      </c>
-      <c r="H10" s="9" t="s">
-        <v>523</v>
-      </c>
-      <c r="I10" s="9" t="s">
-        <v>417</v>
       </c>
       <c r="J10" s="9" t="s">
         <v>224</v>
       </c>
       <c r="K10" s="9" t="s">
-        <v>244</v>
+        <v>545</v>
       </c>
       <c r="L10" s="9" t="s">
         <v>185</v>
@@ -3927,7 +3917,7 @@
         <v>185</v>
       </c>
       <c r="O10" s="9" t="s">
-        <v>304</v>
+        <v>302</v>
       </c>
     </row>
     <row r="11" spans="1:15" ht="75" x14ac:dyDescent="0.25">
@@ -3935,7 +3925,7 @@
         <v>9</v>
       </c>
       <c r="B11" s="8" t="s">
-        <v>276</v>
+        <v>274</v>
       </c>
       <c r="C11" s="8" t="s">
         <v>92</v>
@@ -3947,19 +3937,19 @@
         <v>236</v>
       </c>
       <c r="F11" s="14" t="s">
-        <v>423</v>
+        <v>421</v>
       </c>
       <c r="G11" s="9" t="s">
+        <v>413</v>
+      </c>
+      <c r="H11" s="9" t="s">
+        <v>521</v>
+      </c>
+      <c r="I11" s="9" t="s">
         <v>415</v>
       </c>
-      <c r="H11" s="9" t="s">
-        <v>523</v>
-      </c>
-      <c r="I11" s="9" t="s">
-        <v>417</v>
-      </c>
       <c r="J11" s="9" t="s">
-        <v>279</v>
+        <v>277</v>
       </c>
       <c r="K11" s="9" t="s">
         <v>237</v>
@@ -3988,37 +3978,37 @@
         <v>66</v>
       </c>
       <c r="E12" s="9" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="F12" s="9" t="s">
-        <v>249</v>
+        <v>247</v>
       </c>
       <c r="G12" s="9" t="s">
-        <v>416</v>
+        <v>414</v>
       </c>
       <c r="H12" s="9" t="s">
-        <v>253</v>
+        <v>251</v>
       </c>
       <c r="I12" s="9" t="s">
-        <v>419</v>
+        <v>417</v>
       </c>
       <c r="J12" s="9" t="s">
         <v>223</v>
       </c>
       <c r="K12" s="9" t="s">
-        <v>256</v>
+        <v>254</v>
       </c>
       <c r="L12" s="9" t="s">
         <v>185</v>
       </c>
       <c r="M12" s="9" t="s">
-        <v>260</v>
+        <v>258</v>
       </c>
       <c r="N12" s="9" t="s">
         <v>185</v>
       </c>
       <c r="O12" s="9" t="s">
-        <v>255</v>
+        <v>253</v>
       </c>
     </row>
     <row r="13" spans="1:15" ht="51.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -4026,31 +4016,31 @@
         <v>4</v>
       </c>
       <c r="B13" s="8" t="s">
-        <v>254</v>
+        <v>252</v>
       </c>
       <c r="C13" s="8" t="s">
         <v>98</v>
       </c>
       <c r="D13" s="8" t="s">
+        <v>249</v>
+      </c>
+      <c r="E13" s="9" t="s">
+        <v>244</v>
+      </c>
+      <c r="F13" s="9" t="s">
+        <v>247</v>
+      </c>
+      <c r="G13" s="9" t="s">
+        <v>414</v>
+      </c>
+      <c r="H13" s="9" t="s">
         <v>251</v>
       </c>
-      <c r="E13" s="9" t="s">
-        <v>245</v>
-      </c>
-      <c r="F13" s="9" t="s">
-        <v>249</v>
-      </c>
-      <c r="G13" s="9" t="s">
-        <v>416</v>
-      </c>
-      <c r="H13" s="9" t="s">
-        <v>253</v>
-      </c>
       <c r="I13" s="9" t="s">
-        <v>419</v>
+        <v>417</v>
       </c>
       <c r="J13" s="9" t="s">
-        <v>279</v>
+        <v>277</v>
       </c>
       <c r="K13" s="9" t="s">
         <v>237</v>
@@ -4059,13 +4049,13 @@
         <v>185</v>
       </c>
       <c r="M13" s="9" t="s">
-        <v>262</v>
+        <v>260</v>
       </c>
       <c r="N13" s="9" t="s">
         <v>185</v>
       </c>
       <c r="O13" s="9" t="s">
-        <v>265</v>
+        <v>263</v>
       </c>
     </row>
     <row r="14" spans="1:15" ht="60" x14ac:dyDescent="0.25">
@@ -4082,37 +4072,37 @@
         <v>100</v>
       </c>
       <c r="E14" s="9" t="s">
-        <v>454</v>
+        <v>452</v>
       </c>
       <c r="F14" s="9" t="s">
-        <v>277</v>
+        <v>275</v>
       </c>
       <c r="G14" s="9" t="s">
-        <v>457</v>
+        <v>455</v>
       </c>
       <c r="H14" s="9" t="s">
+        <v>276</v>
+      </c>
+      <c r="I14" s="9" t="s">
         <v>278</v>
-      </c>
-      <c r="I14" s="9" t="s">
-        <v>280</v>
       </c>
       <c r="J14" s="9" t="s">
         <v>220</v>
       </c>
       <c r="K14" s="9" t="s">
-        <v>282</v>
+        <v>280</v>
       </c>
       <c r="L14" s="9" t="s">
-        <v>293</v>
+        <v>291</v>
       </c>
       <c r="M14" s="9" t="s">
-        <v>456</v>
+        <v>454</v>
       </c>
       <c r="N14" s="9" t="s">
-        <v>294</v>
+        <v>292</v>
       </c>
       <c r="O14" s="9" t="s">
-        <v>291</v>
+        <v>289</v>
       </c>
     </row>
     <row r="15" spans="1:15" ht="45" x14ac:dyDescent="0.25">
@@ -4129,34 +4119,34 @@
         <v>101</v>
       </c>
       <c r="E15" s="9" t="s">
-        <v>454</v>
+        <v>452</v>
       </c>
       <c r="F15" s="9" t="s">
-        <v>277</v>
+        <v>275</v>
       </c>
       <c r="G15" s="9" t="s">
-        <v>457</v>
+        <v>455</v>
       </c>
       <c r="H15" s="9" t="s">
+        <v>276</v>
+      </c>
+      <c r="I15" s="9" t="s">
         <v>278</v>
-      </c>
-      <c r="I15" s="9" t="s">
-        <v>280</v>
       </c>
       <c r="J15" s="9" t="s">
         <v>223</v>
       </c>
       <c r="K15" s="9" t="s">
-        <v>526</v>
+        <v>524</v>
       </c>
       <c r="L15" s="9" t="s">
-        <v>295</v>
+        <v>293</v>
       </c>
       <c r="M15" s="9" t="s">
-        <v>298</v>
+        <v>296</v>
       </c>
       <c r="O15" s="9" t="s">
-        <v>292</v>
+        <v>290</v>
       </c>
     </row>
     <row r="16" spans="1:15" ht="45" x14ac:dyDescent="0.25">
@@ -4167,31 +4157,31 @@
         <v>55</v>
       </c>
       <c r="C16" s="8" t="s">
-        <v>486</v>
+        <v>484</v>
       </c>
       <c r="D16" s="8" t="s">
-        <v>258</v>
+        <v>256</v>
       </c>
       <c r="E16" s="9" t="s">
-        <v>305</v>
+        <v>303</v>
       </c>
       <c r="F16" s="9" t="s">
-        <v>308</v>
+        <v>306</v>
       </c>
       <c r="G16" s="9" t="s">
         <v>201</v>
       </c>
       <c r="H16" s="9" t="s">
-        <v>310</v>
+        <v>308</v>
       </c>
       <c r="I16" s="9" t="s">
-        <v>307</v>
+        <v>305</v>
       </c>
       <c r="J16" s="9" t="s">
         <v>221</v>
       </c>
       <c r="K16" s="9" t="s">
-        <v>485</v>
+        <v>483</v>
       </c>
     </row>
     <row r="17" spans="1:15" ht="45" x14ac:dyDescent="0.25">
@@ -4202,31 +4192,31 @@
         <v>146</v>
       </c>
       <c r="C17" s="8" t="s">
-        <v>487</v>
+        <v>485</v>
       </c>
       <c r="D17" s="8" t="s">
-        <v>259</v>
+        <v>257</v>
       </c>
       <c r="E17" s="9" t="s">
-        <v>305</v>
+        <v>303</v>
       </c>
       <c r="F17" s="9" t="s">
-        <v>308</v>
+        <v>306</v>
       </c>
       <c r="G17" s="9" t="s">
         <v>201</v>
       </c>
       <c r="H17" s="9" t="s">
-        <v>310</v>
+        <v>308</v>
       </c>
       <c r="I17" s="9" t="s">
-        <v>307</v>
+        <v>305</v>
       </c>
       <c r="J17" s="9" t="s">
         <v>219</v>
       </c>
       <c r="K17" s="9" t="s">
-        <v>529</v>
+        <v>527</v>
       </c>
     </row>
     <row r="18" spans="1:15" ht="68.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -4243,25 +4233,25 @@
         <v>63</v>
       </c>
       <c r="E18" s="9" t="s">
-        <v>422</v>
+        <v>420</v>
       </c>
       <c r="F18" s="9" t="s">
+        <v>467</v>
+      </c>
+      <c r="G18" s="9" t="s">
+        <v>418</v>
+      </c>
+      <c r="H18" s="9" t="s">
         <v>469</v>
       </c>
-      <c r="G18" s="9" t="s">
-        <v>420</v>
-      </c>
-      <c r="H18" s="9" t="s">
-        <v>471</v>
-      </c>
       <c r="I18" s="9" t="s">
-        <v>421</v>
+        <v>419</v>
       </c>
       <c r="J18" s="9" t="s">
         <v>219</v>
       </c>
       <c r="K18" s="9" t="s">
-        <v>478</v>
+        <v>476</v>
       </c>
       <c r="L18" s="9" t="s">
         <v>185</v>
@@ -4275,34 +4265,34 @@
         <v>25</v>
       </c>
       <c r="B19" s="8" t="s">
-        <v>318</v>
+        <v>316</v>
       </c>
       <c r="C19" s="8" t="s">
-        <v>477</v>
+        <v>475</v>
       </c>
       <c r="D19" s="8" t="s">
         <v>64</v>
       </c>
       <c r="E19" s="9" t="s">
-        <v>422</v>
+        <v>420</v>
       </c>
       <c r="F19" s="9" t="s">
+        <v>467</v>
+      </c>
+      <c r="G19" s="9" t="s">
+        <v>418</v>
+      </c>
+      <c r="H19" s="9" t="s">
         <v>469</v>
       </c>
-      <c r="G19" s="9" t="s">
-        <v>420</v>
-      </c>
-      <c r="H19" s="9" t="s">
-        <v>471</v>
-      </c>
       <c r="I19" s="9" t="s">
-        <v>421</v>
+        <v>419</v>
       </c>
       <c r="J19" s="9" t="s">
-        <v>279</v>
+        <v>277</v>
       </c>
       <c r="K19" s="9" t="s">
-        <v>472</v>
+        <v>470</v>
       </c>
       <c r="L19" s="9" t="s">
         <v>185</v>
@@ -4325,25 +4315,25 @@
         <v>114</v>
       </c>
       <c r="E20" s="9" t="s">
-        <v>315</v>
+        <v>313</v>
       </c>
       <c r="F20" s="9" t="s">
-        <v>316</v>
+        <v>314</v>
       </c>
       <c r="G20" s="9" t="s">
-        <v>319</v>
+        <v>317</v>
       </c>
       <c r="H20" s="9" t="s">
-        <v>324</v>
+        <v>322</v>
       </c>
       <c r="I20" s="9" t="s">
-        <v>323</v>
+        <v>321</v>
       </c>
       <c r="J20" s="9" t="s">
         <v>220</v>
       </c>
       <c r="K20" s="9" t="s">
-        <v>490</v>
+        <v>488</v>
       </c>
     </row>
     <row r="21" spans="1:15" ht="45" x14ac:dyDescent="0.25">
@@ -4360,25 +4350,25 @@
         <v>113</v>
       </c>
       <c r="E21" s="9" t="s">
-        <v>315</v>
+        <v>313</v>
       </c>
       <c r="F21" s="9" t="s">
-        <v>316</v>
+        <v>314</v>
       </c>
       <c r="G21" s="9" t="s">
-        <v>319</v>
+        <v>317</v>
       </c>
       <c r="H21" s="9" t="s">
-        <v>324</v>
+        <v>322</v>
       </c>
       <c r="I21" s="9" t="s">
-        <v>323</v>
+        <v>321</v>
       </c>
       <c r="J21" s="9" t="s">
         <v>223</v>
       </c>
       <c r="K21" s="9" t="s">
-        <v>489</v>
+        <v>487</v>
       </c>
     </row>
     <row r="22" spans="1:15" ht="60" x14ac:dyDescent="0.25">
@@ -4395,25 +4385,25 @@
         <v>77</v>
       </c>
       <c r="E22" s="9" t="s">
-        <v>331</v>
+        <v>329</v>
       </c>
       <c r="F22" s="9" t="s">
-        <v>494</v>
+        <v>492</v>
       </c>
       <c r="G22" s="9" t="s">
-        <v>332</v>
+        <v>330</v>
       </c>
       <c r="H22" s="9" t="s">
-        <v>335</v>
+        <v>333</v>
       </c>
       <c r="I22" s="9" t="s">
-        <v>336</v>
+        <v>334</v>
       </c>
       <c r="J22" s="9" t="s">
         <v>220</v>
       </c>
       <c r="K22" s="9" t="s">
-        <v>493</v>
+        <v>491</v>
       </c>
     </row>
     <row r="23" spans="1:15" ht="60" x14ac:dyDescent="0.25">
@@ -4430,25 +4420,25 @@
         <v>78</v>
       </c>
       <c r="E23" s="9" t="s">
-        <v>331</v>
+        <v>329</v>
       </c>
       <c r="F23" s="9" t="s">
-        <v>494</v>
+        <v>492</v>
       </c>
       <c r="G23" s="9" t="s">
-        <v>332</v>
+        <v>330</v>
       </c>
       <c r="H23" s="9" t="s">
-        <v>335</v>
+        <v>333</v>
       </c>
       <c r="I23" s="9" t="s">
-        <v>336</v>
+        <v>334</v>
       </c>
       <c r="J23" s="9" t="s">
         <v>219</v>
       </c>
       <c r="K23" s="9" t="s">
-        <v>498</v>
+        <v>496</v>
       </c>
     </row>
     <row r="24" spans="1:15" ht="75" x14ac:dyDescent="0.25">
@@ -4465,37 +4455,37 @@
         <v>59</v>
       </c>
       <c r="E24" s="9" t="s">
-        <v>341</v>
+        <v>339</v>
       </c>
       <c r="F24" s="9" t="s">
-        <v>344</v>
+        <v>342</v>
       </c>
       <c r="G24" s="9" t="s">
-        <v>427</v>
+        <v>425</v>
       </c>
       <c r="H24" s="9" t="s">
-        <v>531</v>
+        <v>529</v>
       </c>
       <c r="I24" s="9" t="s">
-        <v>428</v>
+        <v>426</v>
       </c>
       <c r="J24" s="9" t="s">
         <v>221</v>
       </c>
       <c r="K24" s="9" t="s">
-        <v>349</v>
+        <v>347</v>
       </c>
       <c r="L24" s="9" t="s">
         <v>185</v>
       </c>
       <c r="M24" s="9" t="s">
-        <v>350</v>
+        <v>348</v>
       </c>
       <c r="N24" s="9" t="s">
         <v>185</v>
       </c>
       <c r="O24" s="9" t="s">
-        <v>351</v>
+        <v>349</v>
       </c>
     </row>
     <row r="25" spans="1:15" ht="75" x14ac:dyDescent="0.25">
@@ -4512,37 +4502,37 @@
         <v>61</v>
       </c>
       <c r="E25" s="9" t="s">
-        <v>341</v>
+        <v>339</v>
       </c>
       <c r="F25" s="9" t="s">
-        <v>344</v>
+        <v>342</v>
       </c>
       <c r="G25" s="9" t="s">
-        <v>427</v>
+        <v>425</v>
       </c>
       <c r="H25" s="9" t="s">
-        <v>531</v>
+        <v>529</v>
       </c>
       <c r="I25" s="9" t="s">
-        <v>428</v>
+        <v>426</v>
       </c>
       <c r="J25" s="9" t="s">
         <v>219</v>
       </c>
       <c r="K25" s="9" t="s">
-        <v>345</v>
+        <v>343</v>
       </c>
       <c r="L25" s="9" t="s">
         <v>185</v>
       </c>
       <c r="M25" s="9" t="s">
-        <v>348</v>
+        <v>346</v>
       </c>
       <c r="N25" s="9" t="s">
         <v>185</v>
       </c>
       <c r="O25" s="9" t="s">
-        <v>355</v>
+        <v>353</v>
       </c>
     </row>
     <row r="26" spans="1:15" ht="63.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -4559,31 +4549,31 @@
         <v>111</v>
       </c>
       <c r="E26" s="9" t="s">
-        <v>353</v>
+        <v>351</v>
       </c>
       <c r="F26" s="9" t="s">
-        <v>358</v>
+        <v>356</v>
       </c>
       <c r="G26" s="9" t="s">
+        <v>359</v>
+      </c>
+      <c r="H26" s="9" t="s">
+        <v>364</v>
+      </c>
+      <c r="I26" s="9" t="s">
+        <v>530</v>
+      </c>
+      <c r="J26" s="9" t="s">
+        <v>277</v>
+      </c>
+      <c r="K26" s="9" t="s">
         <v>361</v>
       </c>
-      <c r="H26" s="9" t="s">
-        <v>366</v>
-      </c>
-      <c r="I26" s="9" t="s">
-        <v>532</v>
-      </c>
-      <c r="J26" s="9" t="s">
-        <v>279</v>
-      </c>
-      <c r="K26" s="9" t="s">
+      <c r="L26" s="9" t="s">
+        <v>360</v>
+      </c>
+      <c r="M26" s="9" t="s">
         <v>363</v>
-      </c>
-      <c r="L26" s="9" t="s">
-        <v>362</v>
-      </c>
-      <c r="M26" s="9" t="s">
-        <v>365</v>
       </c>
     </row>
     <row r="27" spans="1:15" ht="63.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -4600,31 +4590,31 @@
         <v>112</v>
       </c>
       <c r="E27" s="9" t="s">
-        <v>353</v>
+        <v>351</v>
       </c>
       <c r="F27" s="9" t="s">
-        <v>358</v>
+        <v>356</v>
       </c>
       <c r="G27" s="9" t="s">
-        <v>361</v>
+        <v>359</v>
       </c>
       <c r="H27" s="9" t="s">
-        <v>366</v>
+        <v>364</v>
       </c>
       <c r="I27" s="9" t="s">
-        <v>532</v>
+        <v>530</v>
       </c>
       <c r="J27" s="9" t="s">
         <v>221</v>
       </c>
       <c r="K27" s="9" t="s">
-        <v>364</v>
+        <v>362</v>
       </c>
       <c r="L27" s="9" t="s">
-        <v>369</v>
+        <v>367</v>
       </c>
       <c r="M27" s="9" t="s">
-        <v>370</v>
+        <v>368</v>
       </c>
     </row>
     <row r="28" spans="1:15" ht="45" x14ac:dyDescent="0.25">
@@ -4641,28 +4631,28 @@
         <v>128</v>
       </c>
       <c r="E28" s="9" t="s">
+        <v>369</v>
+      </c>
+      <c r="F28" s="9" t="s">
+        <v>391</v>
+      </c>
+      <c r="G28" s="9" t="s">
+        <v>359</v>
+      </c>
+      <c r="H28" s="15" t="s">
+        <v>477</v>
+      </c>
+      <c r="I28" s="9" t="s">
         <v>371</v>
-      </c>
-      <c r="F28" s="9" t="s">
-        <v>393</v>
-      </c>
-      <c r="G28" s="9" t="s">
-        <v>361</v>
-      </c>
-      <c r="H28" s="15" t="s">
-        <v>479</v>
-      </c>
-      <c r="I28" s="9" t="s">
-        <v>373</v>
       </c>
       <c r="J28" s="9" t="s">
         <v>224</v>
       </c>
       <c r="K28" s="9" t="s">
-        <v>394</v>
+        <v>392</v>
       </c>
       <c r="O28" s="9" t="s">
-        <v>484</v>
+        <v>482</v>
       </c>
     </row>
     <row r="29" spans="1:15" ht="45" x14ac:dyDescent="0.25">
@@ -4679,25 +4669,25 @@
         <v>127</v>
       </c>
       <c r="E29" s="9" t="s">
+        <v>369</v>
+      </c>
+      <c r="F29" s="9" t="s">
+        <v>391</v>
+      </c>
+      <c r="G29" s="9" t="s">
+        <v>359</v>
+      </c>
+      <c r="H29" s="15" t="s">
+        <v>477</v>
+      </c>
+      <c r="I29" s="9" t="s">
         <v>371</v>
-      </c>
-      <c r="F29" s="9" t="s">
-        <v>393</v>
-      </c>
-      <c r="G29" s="9" t="s">
-        <v>361</v>
-      </c>
-      <c r="H29" s="15" t="s">
-        <v>479</v>
-      </c>
-      <c r="I29" s="9" t="s">
-        <v>373</v>
       </c>
       <c r="J29" s="9" t="s">
         <v>221</v>
       </c>
       <c r="K29" s="9" t="s">
-        <v>533</v>
+        <v>531</v>
       </c>
     </row>
     <row r="30" spans="1:15" ht="45" x14ac:dyDescent="0.25">
@@ -4708,37 +4698,37 @@
         <v>129</v>
       </c>
       <c r="C30" s="8" t="s">
-        <v>340</v>
+        <v>338</v>
       </c>
       <c r="D30" s="8" t="s">
-        <v>357</v>
+        <v>355</v>
       </c>
       <c r="E30" s="9" t="s">
-        <v>376</v>
+        <v>374</v>
       </c>
       <c r="F30" s="9" t="s">
-        <v>375</v>
+        <v>373</v>
       </c>
       <c r="G30" s="9" t="s">
-        <v>429</v>
+        <v>427</v>
       </c>
       <c r="H30" s="9" t="s">
-        <v>374</v>
+        <v>372</v>
       </c>
       <c r="I30" s="9" t="s">
-        <v>430</v>
+        <v>428</v>
       </c>
       <c r="J30" s="9" t="s">
         <v>224</v>
       </c>
       <c r="K30" s="9" t="s">
-        <v>379</v>
+        <v>377</v>
       </c>
       <c r="L30" s="9" t="s">
         <v>185</v>
       </c>
       <c r="M30" s="9" t="s">
-        <v>382</v>
+        <v>380</v>
       </c>
       <c r="N30" s="9" t="s">
         <v>185</v>
@@ -4749,7 +4739,7 @@
         <v>130</v>
       </c>
       <c r="B31" s="8" t="s">
-        <v>276</v>
+        <v>274</v>
       </c>
       <c r="C31" s="8" t="s">
         <v>57</v>
@@ -4758,31 +4748,31 @@
         <v>74</v>
       </c>
       <c r="E31" s="9" t="s">
-        <v>376</v>
+        <v>374</v>
       </c>
       <c r="F31" s="9" t="s">
-        <v>375</v>
+        <v>373</v>
       </c>
       <c r="G31" s="9" t="s">
-        <v>429</v>
+        <v>427</v>
       </c>
       <c r="H31" s="9" t="s">
-        <v>374</v>
+        <v>372</v>
       </c>
       <c r="I31" s="9" t="s">
-        <v>430</v>
+        <v>428</v>
       </c>
       <c r="J31" s="9" t="s">
-        <v>279</v>
+        <v>277</v>
       </c>
       <c r="K31" s="9" t="s">
-        <v>380</v>
+        <v>378</v>
       </c>
       <c r="L31" s="9" t="s">
         <v>185</v>
       </c>
       <c r="M31" s="9" t="s">
-        <v>381</v>
+        <v>379</v>
       </c>
       <c r="N31" s="9" t="s">
         <v>185</v>
@@ -4802,31 +4792,31 @@
         <v>110</v>
       </c>
       <c r="E32" s="9" t="s">
-        <v>383</v>
+        <v>381</v>
       </c>
       <c r="F32" s="9" t="s">
-        <v>391</v>
+        <v>389</v>
       </c>
       <c r="G32" s="9" t="s">
-        <v>398</v>
+        <v>396</v>
       </c>
       <c r="H32" s="9" t="s">
-        <v>402</v>
+        <v>400</v>
       </c>
       <c r="I32" s="9" t="s">
-        <v>403</v>
+        <v>401</v>
       </c>
       <c r="J32" s="9" t="s">
         <v>224</v>
       </c>
       <c r="K32" s="9" t="s">
-        <v>501</v>
+        <v>499</v>
       </c>
       <c r="M32" s="9" t="s">
-        <v>397</v>
+        <v>395</v>
       </c>
       <c r="O32" s="9" t="s">
-        <v>390</v>
+        <v>388</v>
       </c>
     </row>
     <row r="33" spans="1:15" ht="45" x14ac:dyDescent="0.25">
@@ -4843,28 +4833,28 @@
         <v>109</v>
       </c>
       <c r="E33" s="9" t="s">
-        <v>383</v>
+        <v>381</v>
       </c>
       <c r="F33" s="9" t="s">
-        <v>391</v>
+        <v>389</v>
       </c>
       <c r="G33" s="9" t="s">
-        <v>398</v>
+        <v>396</v>
       </c>
       <c r="H33" s="9" t="s">
-        <v>504</v>
+        <v>502</v>
       </c>
       <c r="I33" s="9" t="s">
-        <v>403</v>
+        <v>401</v>
       </c>
       <c r="J33" s="9" t="s">
         <v>223</v>
       </c>
       <c r="K33" s="9" t="s">
-        <v>503</v>
+        <v>501</v>
       </c>
       <c r="O33" s="9" t="s">
-        <v>502</v>
+        <v>500</v>
       </c>
     </row>
     <row r="34" spans="1:15" ht="45" x14ac:dyDescent="0.25">
@@ -4881,25 +4871,25 @@
         <v>134</v>
       </c>
       <c r="E34" s="9" t="s">
-        <v>406</v>
+        <v>404</v>
       </c>
       <c r="F34" s="9" t="s">
-        <v>411</v>
+        <v>409</v>
       </c>
       <c r="G34" s="9" t="s">
-        <v>409</v>
+        <v>407</v>
       </c>
       <c r="H34" s="9" t="s">
-        <v>534</v>
+        <v>532</v>
       </c>
       <c r="I34" s="9" t="s">
-        <v>431</v>
+        <v>429</v>
       </c>
       <c r="J34" s="9" t="s">
         <v>221</v>
       </c>
       <c r="K34" s="9" t="s">
-        <v>410</v>
+        <v>408</v>
       </c>
     </row>
     <row r="35" spans="1:15" ht="45" x14ac:dyDescent="0.25">
@@ -4916,25 +4906,25 @@
         <v>135</v>
       </c>
       <c r="E35" s="9" t="s">
-        <v>406</v>
+        <v>404</v>
       </c>
       <c r="F35" s="9" t="s">
-        <v>411</v>
+        <v>409</v>
       </c>
       <c r="G35" s="9" t="s">
-        <v>409</v>
+        <v>407</v>
       </c>
       <c r="H35" s="9" t="s">
-        <v>534</v>
+        <v>532</v>
       </c>
       <c r="I35" s="9" t="s">
-        <v>431</v>
+        <v>429</v>
       </c>
       <c r="J35" s="9" t="s">
         <v>223</v>
       </c>
       <c r="K35" s="9" t="s">
-        <v>538</v>
+        <v>536</v>
       </c>
     </row>
     <row r="36" spans="1:15" ht="45" x14ac:dyDescent="0.25">
@@ -4951,25 +4941,25 @@
         <v>72</v>
       </c>
       <c r="E36" s="9" t="s">
+        <v>432</v>
+      </c>
+      <c r="F36" s="9" t="s">
+        <v>346</v>
+      </c>
+      <c r="G36" s="9" t="s">
+        <v>543</v>
+      </c>
+      <c r="H36" s="9" t="s">
         <v>434</v>
       </c>
-      <c r="F36" s="9" t="s">
-        <v>348</v>
-      </c>
-      <c r="G36" s="9" t="s">
-        <v>545</v>
-      </c>
-      <c r="H36" s="9" t="s">
-        <v>436</v>
-      </c>
       <c r="I36" s="9" t="s">
-        <v>505</v>
+        <v>503</v>
       </c>
       <c r="J36" s="9" t="s">
         <v>223</v>
       </c>
       <c r="K36" s="9" t="s">
-        <v>506</v>
+        <v>504</v>
       </c>
       <c r="L36" s="9" t="s">
         <v>185</v>
@@ -4995,19 +4985,19 @@
         <v>75</v>
       </c>
       <c r="E37" s="9" t="s">
-        <v>539</v>
+        <v>537</v>
       </c>
       <c r="F37" s="9" t="s">
-        <v>348</v>
+        <v>346</v>
       </c>
       <c r="G37" s="9" t="s">
-        <v>545</v>
+        <v>543</v>
       </c>
       <c r="H37" s="9" t="s">
-        <v>436</v>
+        <v>434</v>
       </c>
       <c r="I37" s="9" t="s">
-        <v>505</v>
+        <v>503</v>
       </c>
       <c r="J37" s="9" t="s">
         <v>219</v>
@@ -5019,7 +5009,7 @@
         <v>185</v>
       </c>
       <c r="M37" s="9" t="s">
-        <v>507</v>
+        <v>505</v>
       </c>
       <c r="N37" s="9" t="s">
         <v>185</v>
@@ -5039,25 +5029,25 @@
         <v>132</v>
       </c>
       <c r="E38" s="9" t="s">
+        <v>437</v>
+      </c>
+      <c r="F38" s="9" t="s">
         <v>439</v>
       </c>
-      <c r="F38" s="9" t="s">
-        <v>441</v>
-      </c>
       <c r="G38" s="9" t="s">
-        <v>447</v>
+        <v>445</v>
       </c>
       <c r="H38" s="9" t="s">
-        <v>448</v>
+        <v>446</v>
       </c>
       <c r="I38" s="9" t="s">
-        <v>446</v>
+        <v>444</v>
       </c>
       <c r="J38" s="9" t="s">
         <v>220</v>
       </c>
       <c r="K38" s="9" t="s">
-        <v>508</v>
+        <v>506</v>
       </c>
     </row>
     <row r="39" spans="1:15" ht="45" x14ac:dyDescent="0.25">
@@ -5074,25 +5064,25 @@
         <v>133</v>
       </c>
       <c r="E39" s="9" t="s">
+        <v>437</v>
+      </c>
+      <c r="F39" s="9" t="s">
         <v>439</v>
       </c>
-      <c r="F39" s="9" t="s">
-        <v>441</v>
-      </c>
       <c r="G39" s="9" t="s">
-        <v>447</v>
+        <v>445</v>
       </c>
       <c r="H39" s="9" t="s">
-        <v>448</v>
+        <v>446</v>
       </c>
       <c r="I39" s="9" t="s">
-        <v>446</v>
+        <v>444</v>
       </c>
       <c r="J39" s="9" t="s">
         <v>219</v>
       </c>
       <c r="K39" s="9" t="s">
-        <v>509</v>
+        <v>507</v>
       </c>
     </row>
     <row r="40" spans="1:15" ht="60" x14ac:dyDescent="0.25">
@@ -5109,25 +5099,25 @@
         <v>121</v>
       </c>
       <c r="E40" s="9" t="s">
-        <v>453</v>
+        <v>451</v>
       </c>
       <c r="F40" s="9" t="s">
-        <v>458</v>
+        <v>456</v>
       </c>
       <c r="G40" s="9" t="s">
-        <v>461</v>
+        <v>459</v>
       </c>
       <c r="H40" s="9" t="s">
-        <v>465</v>
+        <v>463</v>
       </c>
       <c r="I40" s="9" t="s">
-        <v>462</v>
+        <v>460</v>
       </c>
       <c r="J40" s="9" t="s">
         <v>219</v>
       </c>
       <c r="K40" s="9" t="s">
-        <v>510</v>
+        <v>508</v>
       </c>
     </row>
     <row r="41" spans="1:15" ht="60" x14ac:dyDescent="0.25">
@@ -5144,25 +5134,25 @@
         <v>122</v>
       </c>
       <c r="E41" s="9" t="s">
-        <v>453</v>
+        <v>451</v>
       </c>
       <c r="F41" s="9" t="s">
-        <v>458</v>
+        <v>456</v>
       </c>
       <c r="G41" s="9" t="s">
-        <v>461</v>
+        <v>459</v>
       </c>
       <c r="H41" s="9" t="s">
-        <v>465</v>
+        <v>463</v>
       </c>
       <c r="I41" s="9" t="s">
-        <v>462</v>
+        <v>460</v>
       </c>
       <c r="J41" s="9" t="s">
         <v>223</v>
       </c>
       <c r="K41" s="9" t="s">
-        <v>513</v>
+        <v>511</v>
       </c>
     </row>
     <row r="49" spans="1:2" x14ac:dyDescent="0.25">
@@ -5231,7 +5221,7 @@
     </sortState>
   </autoFilter>
   <phoneticPr fontId="2" type="noConversion"/>
-  <conditionalFormatting sqref="M15:O15 J15 H15 I14:L14 N14:O14 F20:G21 I20:O21 L26 O26:O27 M26:M27 F28:G31 I28:O31 F14:F15 F40:G41 I40:O41 F16:O18 G19:O19 F32:O35 F37:O39 F36:N36 F2:K2 M2:O2 F3:O7 F8:J8 N8:O8 L8 F9:O13 F22:O25 F26:K27">
+  <conditionalFormatting sqref="M15:O15 J15 H15 I14:L14 N14:O14 F20:G21 I20:O21 L26 O26:O27 M26:M27 F28:G31 I28:O31 F14:F15 F40:G41 I40:O41 F16:O18 G19:O19 F32:O35 F37:O39 F36:N36 F8:J8 N8:O8 L8 F9:O13 F22:O25 F26:K27 N2:O2 F2:K2 F3:O7">
     <cfRule type="containsBlanks" dxfId="3" priority="5">
       <formula>LEN(TRIM(F2))=0</formula>
     </cfRule>
@@ -5260,8 +5250,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2C95D906-8738-4C5E-A233-382EB45728A2}">
   <dimension ref="A1:I76"/>
   <sheetViews>
-    <sheetView topLeftCell="C24" workbookViewId="0">
-      <selection activeCell="E29" sqref="E29"/>
+    <sheetView tabSelected="1" topLeftCell="C10" workbookViewId="0">
+      <selection activeCell="F12" sqref="F12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -5315,7 +5305,7 @@
         <v>153</v>
       </c>
       <c r="F2" s="8" t="s">
-        <v>516</v>
+        <v>514</v>
       </c>
       <c r="G2" s="8" t="s">
         <v>180</v>
@@ -5439,7 +5429,7 @@
         <v>179</v>
       </c>
       <c r="E7" s="8" t="s">
-        <v>519</v>
+        <v>517</v>
       </c>
       <c r="F7" s="8" t="s">
         <v>207</v>
@@ -5502,10 +5492,10 @@
     </row>
     <row r="10" spans="1:9" ht="75" x14ac:dyDescent="0.25">
       <c r="E10" s="8" t="s">
-        <v>424</v>
+        <v>422</v>
       </c>
       <c r="F10" s="14" t="s">
-        <v>425</v>
+        <v>423</v>
       </c>
       <c r="G10" s="8" t="s">
         <v>199</v>
@@ -5522,7 +5512,7 @@
         <v>240</v>
       </c>
       <c r="F11" s="8" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="G11" s="8" t="s">
         <v>180</v>
@@ -5536,10 +5526,10 @@
     </row>
     <row r="12" spans="1:9" ht="60" x14ac:dyDescent="0.25">
       <c r="E12" s="8" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="F12" s="8" t="s">
-        <v>248</v>
+        <v>546</v>
       </c>
       <c r="G12" s="8" t="s">
         <v>175</v>
@@ -5553,10 +5543,10 @@
     </row>
     <row r="13" spans="1:9" ht="75" x14ac:dyDescent="0.25">
       <c r="E13" s="8" t="s">
+        <v>248</v>
+      </c>
+      <c r="F13" s="8" t="s">
         <v>250</v>
-      </c>
-      <c r="F13" s="8" t="s">
-        <v>252</v>
       </c>
       <c r="G13" s="8" t="s">
         <v>180</v>
@@ -5570,10 +5560,10 @@
     </row>
     <row r="14" spans="1:9" ht="75" x14ac:dyDescent="0.25">
       <c r="E14" s="8" t="s">
-        <v>263</v>
+        <v>261</v>
       </c>
       <c r="F14" s="8" t="s">
-        <v>257</v>
+        <v>255</v>
       </c>
       <c r="G14" s="8" t="s">
         <v>180</v>
@@ -5587,10 +5577,10 @@
     </row>
     <row r="15" spans="1:9" ht="60" x14ac:dyDescent="0.25">
       <c r="E15" s="8" t="s">
-        <v>261</v>
+        <v>259</v>
       </c>
       <c r="F15" s="8" t="s">
-        <v>264</v>
+        <v>262</v>
       </c>
       <c r="G15" s="8" t="s">
         <v>175</v>
@@ -5604,10 +5594,10 @@
     </row>
     <row r="16" spans="1:9" ht="75" x14ac:dyDescent="0.25">
       <c r="E16" s="8" t="s">
-        <v>269</v>
+        <v>267</v>
       </c>
       <c r="F16" s="8" t="s">
-        <v>270</v>
+        <v>268</v>
       </c>
       <c r="G16" s="8" t="s">
         <v>180</v>
@@ -5621,10 +5611,10 @@
     </row>
     <row r="17" spans="5:9" ht="60" x14ac:dyDescent="0.25">
       <c r="E17" s="8" t="s">
-        <v>388</v>
+        <v>386</v>
       </c>
       <c r="F17" s="8" t="s">
-        <v>389</v>
+        <v>387</v>
       </c>
       <c r="G17" s="8" t="s">
         <v>192</v>
@@ -5638,10 +5628,10 @@
     </row>
     <row r="18" spans="5:9" ht="60" x14ac:dyDescent="0.25">
       <c r="E18" s="8" t="s">
-        <v>521</v>
+        <v>519</v>
       </c>
       <c r="F18" s="8" t="s">
-        <v>522</v>
+        <v>520</v>
       </c>
       <c r="G18" s="8" t="s">
         <v>180</v>
@@ -5655,13 +5645,13 @@
     </row>
     <row r="19" spans="5:9" ht="75" x14ac:dyDescent="0.25">
       <c r="E19" s="8" t="s">
-        <v>274</v>
+        <v>272</v>
       </c>
       <c r="F19" s="8" t="s">
-        <v>281</v>
+        <v>279</v>
       </c>
       <c r="G19" s="8" t="s">
-        <v>275</v>
+        <v>273</v>
       </c>
       <c r="H19" s="8" t="s">
         <v>84</v>
@@ -5672,10 +5662,10 @@
     </row>
     <row r="20" spans="5:9" ht="30" x14ac:dyDescent="0.25">
       <c r="E20" s="8" t="s">
-        <v>283</v>
+        <v>281</v>
       </c>
       <c r="F20" s="8" t="s">
-        <v>289</v>
+        <v>287</v>
       </c>
       <c r="G20" s="8" t="s">
         <v>180</v>
@@ -5689,10 +5679,10 @@
     </row>
     <row r="21" spans="5:9" ht="75" x14ac:dyDescent="0.25">
       <c r="E21" s="8" t="s">
-        <v>285</v>
+        <v>283</v>
       </c>
       <c r="F21" s="8" t="s">
-        <v>286</v>
+        <v>284</v>
       </c>
       <c r="G21" s="8" t="s">
         <v>180</v>
@@ -5706,10 +5696,10 @@
     </row>
     <row r="22" spans="5:9" ht="45" x14ac:dyDescent="0.25">
       <c r="E22" s="8" t="s">
-        <v>287</v>
+        <v>285</v>
       </c>
       <c r="F22" s="8" t="s">
-        <v>525</v>
+        <v>523</v>
       </c>
       <c r="G22" s="8" t="s">
         <v>180</v>
@@ -5723,13 +5713,13 @@
     </row>
     <row r="23" spans="5:9" ht="150" x14ac:dyDescent="0.25">
       <c r="E23" s="8" t="s">
-        <v>284</v>
+        <v>282</v>
       </c>
       <c r="F23" s="8" t="s">
-        <v>290</v>
+        <v>288</v>
       </c>
       <c r="G23" s="8" t="s">
-        <v>524</v>
+        <v>522</v>
       </c>
       <c r="H23" s="8" t="s">
         <v>84</v>
@@ -5740,10 +5730,10 @@
     </row>
     <row r="24" spans="5:9" ht="60" x14ac:dyDescent="0.25">
       <c r="E24" s="8" t="s">
-        <v>296</v>
+        <v>294</v>
       </c>
       <c r="F24" s="8" t="s">
-        <v>297</v>
+        <v>295</v>
       </c>
       <c r="G24" s="8" t="s">
         <v>199</v>
@@ -5757,7 +5747,7 @@
     </row>
     <row r="25" spans="5:9" x14ac:dyDescent="0.25">
       <c r="E25" s="8" t="s">
-        <v>302</v>
+        <v>300</v>
       </c>
       <c r="H25" s="8" t="s">
         <v>84</v>
@@ -5768,10 +5758,10 @@
     </row>
     <row r="26" spans="5:9" ht="75" x14ac:dyDescent="0.25">
       <c r="E26" s="8" t="s">
-        <v>299</v>
+        <v>297</v>
       </c>
       <c r="F26" s="8" t="s">
-        <v>300</v>
+        <v>298</v>
       </c>
       <c r="G26" s="8" t="s">
         <v>180</v>
@@ -5785,7 +5775,7 @@
     </row>
     <row r="27" spans="5:9" x14ac:dyDescent="0.25">
       <c r="E27" s="8" t="s">
-        <v>301</v>
+        <v>299</v>
       </c>
       <c r="G27" s="8" t="s">
         <v>180</v>
@@ -5799,7 +5789,7 @@
     </row>
     <row r="28" spans="5:9" x14ac:dyDescent="0.25">
       <c r="E28" s="8" t="s">
-        <v>303</v>
+        <v>301</v>
       </c>
       <c r="G28" s="8" t="s">
         <v>180</v>
@@ -5810,10 +5800,10 @@
     </row>
     <row r="29" spans="5:9" ht="105" x14ac:dyDescent="0.25">
       <c r="E29" s="8" t="s">
-        <v>306</v>
+        <v>304</v>
       </c>
       <c r="F29" s="8" t="s">
-        <v>488</v>
+        <v>486</v>
       </c>
       <c r="G29" s="8" t="s">
         <v>199</v>
@@ -5827,10 +5817,10 @@
     </row>
     <row r="30" spans="5:9" ht="120" x14ac:dyDescent="0.25">
       <c r="E30" s="8" t="s">
-        <v>309</v>
+        <v>307</v>
       </c>
       <c r="F30" s="8" t="s">
-        <v>527</v>
+        <v>525</v>
       </c>
       <c r="G30" s="8" t="s">
         <v>209</v>
@@ -5844,10 +5834,10 @@
     </row>
     <row r="31" spans="5:9" ht="60" x14ac:dyDescent="0.25">
       <c r="E31" s="8" t="s">
-        <v>311</v>
+        <v>309</v>
       </c>
       <c r="F31" s="8" t="s">
-        <v>312</v>
+        <v>310</v>
       </c>
       <c r="G31" s="8" t="s">
         <v>180</v>
@@ -5864,7 +5854,7 @@
         <v>116</v>
       </c>
       <c r="F32" s="8" t="s">
-        <v>528</v>
+        <v>526</v>
       </c>
       <c r="G32" s="8" t="s">
         <v>199</v>
@@ -5873,15 +5863,15 @@
         <v>117</v>
       </c>
       <c r="I32" s="12" t="s">
-        <v>486</v>
+        <v>484</v>
       </c>
     </row>
     <row r="33" spans="5:9" ht="105" x14ac:dyDescent="0.25">
       <c r="E33" s="8" t="s">
-        <v>468</v>
+        <v>466</v>
       </c>
       <c r="F33" s="8" t="s">
-        <v>542</v>
+        <v>540</v>
       </c>
       <c r="G33" s="8" t="s">
         <v>175</v>
@@ -5895,13 +5885,13 @@
     </row>
     <row r="34" spans="5:9" ht="45" x14ac:dyDescent="0.25">
       <c r="E34" s="8" t="s">
-        <v>470</v>
+        <v>468</v>
       </c>
       <c r="F34" s="8" t="s">
-        <v>530</v>
+        <v>528</v>
       </c>
       <c r="G34" s="8" t="s">
-        <v>271</v>
+        <v>269</v>
       </c>
       <c r="H34" s="8" t="s">
         <v>25</v>
@@ -5912,10 +5902,10 @@
     </row>
     <row r="35" spans="5:9" ht="45" x14ac:dyDescent="0.25">
       <c r="E35" s="8" t="s">
-        <v>474</v>
+        <v>472</v>
       </c>
       <c r="F35" s="8" t="s">
-        <v>475</v>
+        <v>473</v>
       </c>
       <c r="G35" s="8" t="s">
         <v>180</v>
@@ -5924,21 +5914,21 @@
         <v>25</v>
       </c>
       <c r="I35" s="12" t="s">
-        <v>476</v>
+        <v>474</v>
       </c>
     </row>
     <row r="36" spans="5:9" ht="60" x14ac:dyDescent="0.25">
       <c r="E36" s="8" t="s">
-        <v>314</v>
+        <v>312</v>
       </c>
       <c r="F36" s="8" t="s">
-        <v>321</v>
+        <v>319</v>
       </c>
       <c r="G36" s="8" t="s">
-        <v>271</v>
+        <v>269</v>
       </c>
       <c r="H36" s="8" t="s">
-        <v>313</v>
+        <v>311</v>
       </c>
       <c r="I36" s="12" t="s">
         <v>166</v>
@@ -5946,16 +5936,16 @@
     </row>
     <row r="37" spans="5:9" ht="90" x14ac:dyDescent="0.25">
       <c r="E37" s="8" t="s">
-        <v>317</v>
+        <v>315</v>
       </c>
       <c r="F37" s="8" t="s">
-        <v>326</v>
+        <v>324</v>
       </c>
       <c r="G37" s="8" t="s">
-        <v>271</v>
+        <v>269</v>
       </c>
       <c r="H37" s="8" t="s">
-        <v>313</v>
+        <v>311</v>
       </c>
       <c r="I37" s="12" t="s">
         <v>166</v>
@@ -5963,16 +5953,16 @@
     </row>
     <row r="38" spans="5:9" ht="120" x14ac:dyDescent="0.25">
       <c r="E38" s="8" t="s">
+        <v>318</v>
+      </c>
+      <c r="F38" s="8" t="s">
         <v>320</v>
-      </c>
-      <c r="F38" s="8" t="s">
-        <v>322</v>
       </c>
       <c r="G38" s="8" t="s">
         <v>209</v>
       </c>
       <c r="H38" s="8" t="s">
-        <v>313</v>
+        <v>311</v>
       </c>
       <c r="I38" s="12" t="s">
         <v>166</v>
@@ -5980,16 +5970,16 @@
     </row>
     <row r="39" spans="5:9" ht="45" x14ac:dyDescent="0.25">
       <c r="E39" s="8" t="s">
+        <v>323</v>
+      </c>
+      <c r="F39" s="8" t="s">
         <v>325</v>
       </c>
-      <c r="F39" s="8" t="s">
-        <v>327</v>
-      </c>
       <c r="G39" s="8" t="s">
-        <v>328</v>
+        <v>326</v>
       </c>
       <c r="H39" s="8" t="s">
-        <v>313</v>
+        <v>311</v>
       </c>
       <c r="I39" s="12" t="s">
         <v>166</v>
@@ -5997,16 +5987,16 @@
     </row>
     <row r="40" spans="5:9" ht="90" x14ac:dyDescent="0.25">
       <c r="E40" s="8" t="s">
-        <v>491</v>
+        <v>489</v>
       </c>
       <c r="F40" s="8" t="s">
-        <v>492</v>
+        <v>490</v>
       </c>
       <c r="G40" s="8" t="s">
         <v>209</v>
       </c>
       <c r="H40" s="8" t="s">
-        <v>313</v>
+        <v>311</v>
       </c>
       <c r="I40" s="12" t="s">
         <v>86</v>
@@ -6014,10 +6004,10 @@
     </row>
     <row r="41" spans="5:9" ht="60" x14ac:dyDescent="0.25">
       <c r="E41" s="8" t="s">
-        <v>329</v>
+        <v>327</v>
       </c>
       <c r="F41" s="8" t="s">
-        <v>330</v>
+        <v>328</v>
       </c>
       <c r="G41" s="8" t="s">
         <v>209</v>
@@ -6031,10 +6021,10 @@
     </row>
     <row r="42" spans="5:9" ht="60" x14ac:dyDescent="0.25">
       <c r="E42" s="8" t="s">
-        <v>497</v>
+        <v>495</v>
       </c>
       <c r="F42" s="8" t="s">
-        <v>338</v>
+        <v>336</v>
       </c>
       <c r="G42" s="8" t="s">
         <v>209</v>
@@ -6048,10 +6038,10 @@
     </row>
     <row r="43" spans="5:9" ht="90" x14ac:dyDescent="0.25">
       <c r="E43" s="8" t="s">
-        <v>333</v>
+        <v>331</v>
       </c>
       <c r="F43" s="8" t="s">
-        <v>334</v>
+        <v>332</v>
       </c>
       <c r="G43" s="8" t="s">
         <v>209</v>
@@ -6065,10 +6055,10 @@
     </row>
     <row r="44" spans="5:9" ht="75" x14ac:dyDescent="0.25">
       <c r="E44" s="8" t="s">
+        <v>335</v>
+      </c>
+      <c r="F44" s="8" t="s">
         <v>337</v>
-      </c>
-      <c r="F44" s="8" t="s">
-        <v>339</v>
       </c>
       <c r="G44" s="8" t="s">
         <v>180</v>
@@ -6082,10 +6072,10 @@
     </row>
     <row r="45" spans="5:9" ht="75" x14ac:dyDescent="0.25">
       <c r="E45" s="8" t="s">
-        <v>495</v>
+        <v>493</v>
       </c>
       <c r="F45" s="8" t="s">
-        <v>496</v>
+        <v>494</v>
       </c>
       <c r="G45" s="8" t="s">
         <v>180</v>
@@ -6099,10 +6089,10 @@
     </row>
     <row r="46" spans="5:9" ht="75" x14ac:dyDescent="0.25">
       <c r="E46" s="8" t="s">
-        <v>499</v>
+        <v>497</v>
       </c>
       <c r="F46" s="8" t="s">
-        <v>500</v>
+        <v>498</v>
       </c>
       <c r="G46" s="8" t="s">
         <v>209</v>
@@ -6116,10 +6106,10 @@
     </row>
     <row r="47" spans="5:9" ht="45" x14ac:dyDescent="0.25">
       <c r="E47" s="8" t="s">
-        <v>342</v>
+        <v>340</v>
       </c>
       <c r="F47" s="8" t="s">
-        <v>343</v>
+        <v>341</v>
       </c>
       <c r="G47" s="8" t="s">
         <v>171</v>
@@ -6133,10 +6123,10 @@
     </row>
     <row r="48" spans="5:9" ht="75" x14ac:dyDescent="0.25">
       <c r="E48" s="8" t="s">
-        <v>346</v>
+        <v>344</v>
       </c>
       <c r="F48" s="8" t="s">
-        <v>347</v>
+        <v>345</v>
       </c>
       <c r="G48" s="8" t="s">
         <v>180</v>
@@ -6150,10 +6140,10 @@
     </row>
     <row r="49" spans="5:9" ht="30" x14ac:dyDescent="0.25">
       <c r="E49" s="8" t="s">
+        <v>352</v>
+      </c>
+      <c r="F49" s="8" t="s">
         <v>354</v>
-      </c>
-      <c r="F49" s="8" t="s">
-        <v>356</v>
       </c>
       <c r="G49" s="8" t="s">
         <v>199</v>
@@ -6167,10 +6157,10 @@
     </row>
     <row r="50" spans="5:9" ht="45" x14ac:dyDescent="0.25">
       <c r="E50" s="8" t="s">
-        <v>359</v>
+        <v>357</v>
       </c>
       <c r="F50" s="8" t="s">
-        <v>360</v>
+        <v>358</v>
       </c>
       <c r="G50" s="8" t="s">
         <v>199</v>
@@ -6184,10 +6174,10 @@
     </row>
     <row r="51" spans="5:9" ht="60" x14ac:dyDescent="0.25">
       <c r="E51" s="8" t="s">
-        <v>367</v>
+        <v>365</v>
       </c>
       <c r="F51" s="8" t="s">
-        <v>368</v>
+        <v>366</v>
       </c>
       <c r="G51" s="8" t="s">
         <v>209</v>
@@ -6201,10 +6191,10 @@
     </row>
     <row r="52" spans="5:9" ht="75" x14ac:dyDescent="0.25">
       <c r="E52" s="8" t="s">
-        <v>372</v>
+        <v>370</v>
       </c>
       <c r="F52" s="8" t="s">
-        <v>408</v>
+        <v>406</v>
       </c>
       <c r="G52" s="8" t="s">
         <v>199</v>
@@ -6218,10 +6208,10 @@
     </row>
     <row r="53" spans="5:9" ht="135" x14ac:dyDescent="0.25">
       <c r="E53" s="8" t="s">
-        <v>481</v>
+        <v>479</v>
       </c>
       <c r="F53" s="8" t="s">
-        <v>482</v>
+        <v>480</v>
       </c>
       <c r="G53" s="8" t="s">
         <v>199</v>
@@ -6235,10 +6225,10 @@
     </row>
     <row r="54" spans="5:9" ht="135" x14ac:dyDescent="0.25">
       <c r="E54" s="8" t="s">
-        <v>480</v>
+        <v>478</v>
       </c>
       <c r="F54" s="8" t="s">
-        <v>483</v>
+        <v>481</v>
       </c>
       <c r="G54" s="8" t="s">
         <v>209</v>
@@ -6252,10 +6242,10 @@
     </row>
     <row r="55" spans="5:9" ht="60" x14ac:dyDescent="0.25">
       <c r="E55" s="8" t="s">
-        <v>395</v>
+        <v>393</v>
       </c>
       <c r="F55" s="8" t="s">
-        <v>396</v>
+        <v>394</v>
       </c>
       <c r="G55" s="8" t="s">
         <v>199</v>
@@ -6269,10 +6259,10 @@
     </row>
     <row r="56" spans="5:9" ht="75" x14ac:dyDescent="0.25">
       <c r="E56" s="8" t="s">
-        <v>377</v>
+        <v>375</v>
       </c>
       <c r="F56" s="8" t="s">
-        <v>378</v>
+        <v>376</v>
       </c>
       <c r="G56" s="8" t="s">
         <v>180</v>
@@ -6286,13 +6276,13 @@
     </row>
     <row r="57" spans="5:9" ht="75" x14ac:dyDescent="0.25">
       <c r="E57" s="8" t="s">
+        <v>382</v>
+      </c>
+      <c r="F57" s="8" t="s">
+        <v>383</v>
+      </c>
+      <c r="G57" s="8" t="s">
         <v>384</v>
-      </c>
-      <c r="F57" s="8" t="s">
-        <v>385</v>
-      </c>
-      <c r="G57" s="8" t="s">
-        <v>386</v>
       </c>
       <c r="H57" s="8" t="s">
         <v>85</v>
@@ -6303,10 +6293,10 @@
     </row>
     <row r="58" spans="5:9" ht="45" x14ac:dyDescent="0.25">
       <c r="E58" s="8" t="s">
-        <v>392</v>
+        <v>390</v>
       </c>
       <c r="F58" s="8" t="s">
-        <v>401</v>
+        <v>399</v>
       </c>
       <c r="G58" s="8" t="s">
         <v>209</v>
@@ -6320,10 +6310,10 @@
     </row>
     <row r="59" spans="5:9" ht="105" x14ac:dyDescent="0.25">
       <c r="E59" s="8" t="s">
-        <v>399</v>
+        <v>397</v>
       </c>
       <c r="F59" s="8" t="s">
-        <v>400</v>
+        <v>398</v>
       </c>
       <c r="G59" s="8" t="s">
         <v>209</v>
@@ -6337,10 +6327,10 @@
     </row>
     <row r="60" spans="5:9" ht="30" x14ac:dyDescent="0.25">
       <c r="E60" s="8" t="s">
-        <v>404</v>
+        <v>402</v>
       </c>
       <c r="F60" s="8" t="s">
-        <v>405</v>
+        <v>403</v>
       </c>
       <c r="G60" s="8" t="s">
         <v>209</v>
@@ -6354,10 +6344,10 @@
     </row>
     <row r="61" spans="5:9" ht="105" x14ac:dyDescent="0.25">
       <c r="E61" s="8" t="s">
-        <v>407</v>
+        <v>405</v>
       </c>
       <c r="F61" s="8" t="s">
-        <v>536</v>
+        <v>534</v>
       </c>
       <c r="G61" s="8" t="s">
         <v>199</v>
@@ -6371,10 +6361,10 @@
     </row>
     <row r="62" spans="5:9" ht="60" x14ac:dyDescent="0.25">
       <c r="E62" s="8" t="s">
-        <v>412</v>
+        <v>410</v>
       </c>
       <c r="F62" s="8" t="s">
-        <v>413</v>
+        <v>411</v>
       </c>
       <c r="G62" s="8" t="s">
         <v>199</v>
@@ -6388,10 +6378,10 @@
     </row>
     <row r="63" spans="5:9" ht="90" x14ac:dyDescent="0.25">
       <c r="E63" s="8" t="s">
-        <v>432</v>
+        <v>430</v>
       </c>
       <c r="F63" s="8" t="s">
-        <v>433</v>
+        <v>431</v>
       </c>
       <c r="G63" s="8" t="s">
         <v>199</v>
@@ -6405,10 +6395,10 @@
     </row>
     <row r="64" spans="5:9" ht="105" x14ac:dyDescent="0.25">
       <c r="E64" s="8" t="s">
+        <v>533</v>
+      </c>
+      <c r="F64" s="8" t="s">
         <v>535</v>
-      </c>
-      <c r="F64" s="8" t="s">
-        <v>537</v>
       </c>
       <c r="G64" s="8" t="s">
         <v>199</v>
@@ -6422,10 +6412,10 @@
     </row>
     <row r="65" spans="5:9" ht="45" x14ac:dyDescent="0.25">
       <c r="E65" s="8" t="s">
-        <v>540</v>
+        <v>538</v>
       </c>
       <c r="F65" s="8" t="s">
-        <v>435</v>
+        <v>433</v>
       </c>
       <c r="G65" s="8" t="s">
         <v>175</v>
@@ -6439,10 +6429,10 @@
     </row>
     <row r="66" spans="5:9" ht="105" x14ac:dyDescent="0.25">
       <c r="E66" s="8" t="s">
-        <v>437</v>
+        <v>435</v>
       </c>
       <c r="F66" s="8" t="s">
-        <v>438</v>
+        <v>436</v>
       </c>
       <c r="G66" s="8" t="s">
         <v>180</v>
@@ -6456,10 +6446,10 @@
     </row>
     <row r="67" spans="5:9" ht="45" x14ac:dyDescent="0.25">
       <c r="E67" s="8" t="s">
+        <v>440</v>
+      </c>
+      <c r="F67" s="8" t="s">
         <v>442</v>
-      </c>
-      <c r="F67" s="8" t="s">
-        <v>444</v>
       </c>
       <c r="G67" s="8" t="s">
         <v>175</v>
@@ -6473,10 +6463,10 @@
     </row>
     <row r="68" spans="5:9" ht="45" x14ac:dyDescent="0.25">
       <c r="E68" s="8" t="s">
+        <v>441</v>
+      </c>
+      <c r="F68" s="8" t="s">
         <v>443</v>
-      </c>
-      <c r="F68" s="8" t="s">
-        <v>445</v>
       </c>
       <c r="G68" s="8" t="s">
         <v>199</v>
@@ -6490,10 +6480,10 @@
     </row>
     <row r="69" spans="5:9" ht="165" x14ac:dyDescent="0.25">
       <c r="E69" s="8" t="s">
+        <v>447</v>
+      </c>
+      <c r="F69" s="8" t="s">
         <v>449</v>
-      </c>
-      <c r="F69" s="8" t="s">
-        <v>451</v>
       </c>
       <c r="G69" s="8" t="s">
         <v>180</v>
@@ -6507,10 +6497,10 @@
     </row>
     <row r="70" spans="5:9" ht="75" x14ac:dyDescent="0.25">
       <c r="E70" s="8" t="s">
+        <v>448</v>
+      </c>
+      <c r="F70" s="8" t="s">
         <v>450</v>
-      </c>
-      <c r="F70" s="8" t="s">
-        <v>452</v>
       </c>
       <c r="G70" s="8" t="s">
         <v>180</v>
@@ -6524,13 +6514,13 @@
     </row>
     <row r="71" spans="5:9" ht="105" x14ac:dyDescent="0.25">
       <c r="E71" s="8" t="s">
-        <v>455</v>
+        <v>453</v>
       </c>
       <c r="F71" s="8" t="s">
-        <v>288</v>
+        <v>286</v>
       </c>
       <c r="G71" s="8" t="s">
-        <v>271</v>
+        <v>269</v>
       </c>
       <c r="H71" s="8" t="s">
         <v>118</v>
@@ -6541,13 +6531,13 @@
     </row>
     <row r="72" spans="5:9" ht="45" x14ac:dyDescent="0.25">
       <c r="E72" s="8" t="s">
-        <v>459</v>
+        <v>457</v>
       </c>
       <c r="F72" s="8" t="s">
-        <v>460</v>
+        <v>458</v>
       </c>
       <c r="G72" s="8" t="s">
-        <v>275</v>
+        <v>273</v>
       </c>
       <c r="H72" s="8" t="s">
         <v>118</v>
@@ -6558,13 +6548,13 @@
     </row>
     <row r="73" spans="5:9" ht="75" x14ac:dyDescent="0.25">
       <c r="E73" s="8" t="s">
-        <v>466</v>
+        <v>464</v>
       </c>
       <c r="F73" s="8" t="s">
-        <v>467</v>
+        <v>465</v>
       </c>
       <c r="G73" s="8" t="s">
-        <v>275</v>
+        <v>273</v>
       </c>
       <c r="H73" s="8" t="s">
         <v>118</v>
@@ -6575,10 +6565,10 @@
     </row>
     <row r="74" spans="5:9" ht="75" x14ac:dyDescent="0.25">
       <c r="E74" s="8" t="s">
-        <v>463</v>
+        <v>461</v>
       </c>
       <c r="F74" s="8" t="s">
-        <v>464</v>
+        <v>462</v>
       </c>
       <c r="G74" s="8" t="s">
         <v>180</v>
@@ -6592,10 +6582,10 @@
     </row>
     <row r="75" spans="5:9" ht="45" x14ac:dyDescent="0.25">
       <c r="E75" s="8" t="s">
-        <v>511</v>
+        <v>509</v>
       </c>
       <c r="F75" s="8" t="s">
-        <v>512</v>
+        <v>510</v>
       </c>
       <c r="G75" s="8" t="s">
         <v>209</v>
@@ -6609,10 +6599,10 @@
     </row>
     <row r="76" spans="5:9" ht="120" x14ac:dyDescent="0.25">
       <c r="E76" s="8" t="s">
-        <v>514</v>
+        <v>512</v>
       </c>
       <c r="F76" s="8" t="s">
-        <v>515</v>
+        <v>513</v>
       </c>
       <c r="G76" s="8" t="s">
         <v>180</v>

--- a/data/Skills and Perks.xlsx
+++ b/data/Skills and Perks.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\nclassen\Documents\GitHub\kaleidorpg\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FC865D3C-2DD8-4798-BD19-54DBDE69CD48}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{776D76E7-B310-4382-B3ED-8A9CCD1421F7}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="11970" yWindow="960" windowWidth="16815" windowHeight="12135" activeTab="2" xr2:uid="{B12B2A8F-1441-4AA1-9B77-AB17CC45E638}"/>
+    <workbookView xWindow="11025" yWindow="0" windowWidth="17760" windowHeight="14520" activeTab="1" xr2:uid="{B12B2A8F-1441-4AA1-9B77-AB17CC45E638}"/>
   </bookViews>
   <sheets>
     <sheet name="Basic Attacks" sheetId="1" r:id="rId1"/>
@@ -504,9 +504,6 @@
     <t>Action</t>
   </si>
   <si>
-    <t>Light armor no longer weighs anything</t>
-  </si>
-  <si>
     <t>If enemy misses with an up-close attack, they still roll for damage and give themselves half the outcome</t>
   </si>
   <si>
@@ -1698,6 +1695,9 @@
   </si>
   <si>
     <t>After dealing damage with a blunt weapon, enemy rolls a Con saving throw of 8 plus your skill mod. On a failure, enemy is staggered for a turn.</t>
+  </si>
+  <si>
+    <t>Equipped light armor no longer weighs anything</t>
   </si>
 </sst>
 </file>
@@ -2178,8 +2178,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B579CD42-BFA2-44CF-B060-7A24C7CB8FB1}">
   <dimension ref="A1:N37"/>
   <sheetViews>
-    <sheetView topLeftCell="A9" workbookViewId="0">
-      <selection activeCell="A21" sqref="A21"/>
+    <sheetView topLeftCell="A5" workbookViewId="0">
+      <selection activeCell="A36" sqref="A36"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2498,7 +2498,7 @@
     </row>
     <row r="11" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>424</v>
+        <v>423</v>
       </c>
       <c r="B11" s="2">
         <v>2</v>
@@ -2671,7 +2671,7 @@
     </row>
     <row r="16" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
-        <v>542</v>
+        <v>541</v>
       </c>
       <c r="B16" s="2">
         <v>2</v>
@@ -2714,7 +2714,7 @@
     </row>
     <row r="17" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
-        <v>438</v>
+        <v>437</v>
       </c>
       <c r="B17" s="2">
         <v>3</v>
@@ -2795,7 +2795,7 @@
     </row>
     <row r="20" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
-        <v>544</v>
+        <v>543</v>
       </c>
       <c r="B20" s="2">
         <v>1</v>
@@ -3314,7 +3314,7 @@
     </row>
     <row r="35" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
-        <v>471</v>
+        <v>470</v>
       </c>
       <c r="B35" s="2">
         <v>1</v>
@@ -3456,8 +3456,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{70DF9055-FED5-448D-AEAB-21458D1F8766}">
   <dimension ref="A1:O55"/>
   <sheetViews>
-    <sheetView topLeftCell="A9" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="F12" sqref="A12:F13"/>
+    <sheetView tabSelected="1" topLeftCell="J1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="K3" sqref="K3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3556,16 +3556,16 @@
         <v>151</v>
       </c>
       <c r="J2" s="9" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="K2" s="9" t="s">
-        <v>155</v>
+        <v>546</v>
       </c>
       <c r="N2" s="9" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="O2" s="9" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
     </row>
     <row r="3" spans="1:15" ht="60" x14ac:dyDescent="0.25">
@@ -3597,22 +3597,22 @@
         <v>151</v>
       </c>
       <c r="J3" s="9" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="K3" s="9" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="L3" s="9" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="M3" s="9" t="s">
+        <v>214</v>
+      </c>
+      <c r="N3" s="9" t="s">
         <v>215</v>
       </c>
-      <c r="N3" s="9" t="s">
-        <v>216</v>
-      </c>
       <c r="O3" s="9" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
     </row>
     <row r="4" spans="1:15" ht="75" x14ac:dyDescent="0.25">
@@ -3623,43 +3623,43 @@
         <v>48</v>
       </c>
       <c r="C4" s="8" t="s">
-        <v>515</v>
+        <v>514</v>
       </c>
       <c r="D4" s="8" t="s">
         <v>51</v>
       </c>
       <c r="E4" s="9" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="F4" s="9" t="s">
         <v>73</v>
       </c>
       <c r="G4" s="9" t="s">
-        <v>412</v>
+        <v>411</v>
       </c>
       <c r="H4" s="9" t="s">
+        <v>185</v>
+      </c>
+      <c r="I4" s="9" t="s">
+        <v>415</v>
+      </c>
+      <c r="J4" s="9" t="s">
+        <v>218</v>
+      </c>
+      <c r="K4" s="9" t="s">
+        <v>515</v>
+      </c>
+      <c r="L4" s="9" t="s">
+        <v>184</v>
+      </c>
+      <c r="M4" s="9" t="s">
         <v>186</v>
       </c>
-      <c r="I4" s="9" t="s">
-        <v>416</v>
-      </c>
-      <c r="J4" s="9" t="s">
-        <v>219</v>
-      </c>
-      <c r="K4" s="9" t="s">
-        <v>516</v>
-      </c>
-      <c r="L4" s="9" t="s">
-        <v>185</v>
-      </c>
-      <c r="M4" s="9" t="s">
-        <v>187</v>
-      </c>
       <c r="N4" s="9" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="O4" s="9" t="s">
-        <v>350</v>
+        <v>349</v>
       </c>
     </row>
     <row r="5" spans="1:15" ht="60" x14ac:dyDescent="0.25">
@@ -3676,37 +3676,37 @@
         <v>52</v>
       </c>
       <c r="E5" s="9" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="F5" s="9" t="s">
         <v>73</v>
       </c>
       <c r="G5" s="9" t="s">
-        <v>412</v>
+        <v>411</v>
       </c>
       <c r="H5" s="9" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="I5" s="9" t="s">
-        <v>416</v>
+        <v>415</v>
       </c>
       <c r="J5" s="9" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="K5" s="9" t="s">
-        <v>539</v>
+        <v>538</v>
       </c>
       <c r="L5" s="9" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="M5" s="9" t="s">
-        <v>346</v>
+        <v>345</v>
       </c>
       <c r="N5" s="9" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="O5" s="9" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
     </row>
     <row r="6" spans="1:15" ht="45" x14ac:dyDescent="0.25">
@@ -3723,31 +3723,31 @@
         <v>144</v>
       </c>
       <c r="E6" s="9" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="F6" s="9" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="G6" s="9" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="H6" s="9" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="I6" s="9" t="s">
+        <v>203</v>
+      </c>
+      <c r="J6" s="9" t="s">
+        <v>222</v>
+      </c>
+      <c r="K6" s="9" t="s">
         <v>204</v>
       </c>
-      <c r="J6" s="9" t="s">
-        <v>223</v>
-      </c>
-      <c r="K6" s="9" t="s">
-        <v>205</v>
-      </c>
       <c r="L6" s="9" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="M6" s="9" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
     </row>
     <row r="7" spans="1:15" ht="30" x14ac:dyDescent="0.25">
@@ -3764,31 +3764,31 @@
         <v>145</v>
       </c>
       <c r="E7" s="9" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="F7" s="9" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="G7" s="9" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="H7" s="9" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="I7" s="9" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="J7" s="9" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="K7" s="9" t="s">
-        <v>518</v>
+        <v>517</v>
       </c>
       <c r="M7" s="9" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="O7" s="9" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
     </row>
     <row r="8" spans="1:15" ht="45" x14ac:dyDescent="0.25">
@@ -3808,28 +3808,28 @@
         <v>147</v>
       </c>
       <c r="F8" s="9" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="G8" s="9" t="s">
-        <v>541</v>
+        <v>540</v>
       </c>
       <c r="H8" s="9" t="s">
         <v>148</v>
       </c>
       <c r="I8" s="9" t="s">
+        <v>217</v>
+      </c>
+      <c r="J8" s="9" t="s">
         <v>218</v>
       </c>
-      <c r="J8" s="9" t="s">
-        <v>219</v>
-      </c>
       <c r="K8" s="9" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="L8" s="9" t="s">
+        <v>264</v>
+      </c>
+      <c r="O8" s="9" t="s">
         <v>265</v>
-      </c>
-      <c r="O8" s="9" t="s">
-        <v>266</v>
       </c>
     </row>
     <row r="9" spans="1:15" ht="45" x14ac:dyDescent="0.25">
@@ -3849,28 +3849,28 @@
         <v>147</v>
       </c>
       <c r="F9" s="9" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="G9" s="9" t="s">
-        <v>541</v>
+        <v>540</v>
       </c>
       <c r="H9" s="9" t="s">
         <v>148</v>
       </c>
       <c r="I9" s="9" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="J9" s="9" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="K9" s="9" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="L9" s="9" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="M9" s="9" t="s">
-        <v>385</v>
+        <v>384</v>
       </c>
     </row>
     <row r="10" spans="1:15" ht="105" x14ac:dyDescent="0.25">
@@ -3884,40 +3884,40 @@
         <v>91</v>
       </c>
       <c r="D10" s="8" t="s">
+        <v>231</v>
+      </c>
+      <c r="E10" s="9" t="s">
+        <v>235</v>
+      </c>
+      <c r="F10" s="14" t="s">
+        <v>420</v>
+      </c>
+      <c r="G10" s="9" t="s">
+        <v>412</v>
+      </c>
+      <c r="H10" s="9" t="s">
+        <v>520</v>
+      </c>
+      <c r="I10" s="9" t="s">
+        <v>414</v>
+      </c>
+      <c r="J10" s="9" t="s">
+        <v>223</v>
+      </c>
+      <c r="K10" s="9" t="s">
+        <v>544</v>
+      </c>
+      <c r="L10" s="9" t="s">
+        <v>184</v>
+      </c>
+      <c r="M10" s="9" t="s">
         <v>232</v>
       </c>
-      <c r="E10" s="9" t="s">
-        <v>236</v>
-      </c>
-      <c r="F10" s="14" t="s">
-        <v>421</v>
-      </c>
-      <c r="G10" s="9" t="s">
-        <v>413</v>
-      </c>
-      <c r="H10" s="9" t="s">
-        <v>521</v>
-      </c>
-      <c r="I10" s="9" t="s">
-        <v>415</v>
-      </c>
-      <c r="J10" s="9" t="s">
-        <v>224</v>
-      </c>
-      <c r="K10" s="9" t="s">
-        <v>545</v>
-      </c>
-      <c r="L10" s="9" t="s">
-        <v>185</v>
-      </c>
-      <c r="M10" s="9" t="s">
-        <v>233</v>
-      </c>
       <c r="N10" s="9" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="O10" s="9" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
     </row>
     <row r="11" spans="1:15" ht="75" x14ac:dyDescent="0.25">
@@ -3925,43 +3925,43 @@
         <v>9</v>
       </c>
       <c r="B11" s="8" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="C11" s="8" t="s">
         <v>92</v>
       </c>
       <c r="D11" s="8" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="E11" s="9" t="s">
+        <v>235</v>
+      </c>
+      <c r="F11" s="14" t="s">
+        <v>420</v>
+      </c>
+      <c r="G11" s="9" t="s">
+        <v>412</v>
+      </c>
+      <c r="H11" s="9" t="s">
+        <v>520</v>
+      </c>
+      <c r="I11" s="9" t="s">
+        <v>414</v>
+      </c>
+      <c r="J11" s="9" t="s">
+        <v>276</v>
+      </c>
+      <c r="K11" s="9" t="s">
         <v>236</v>
       </c>
-      <c r="F11" s="14" t="s">
-        <v>421</v>
-      </c>
-      <c r="G11" s="9" t="s">
-        <v>413</v>
-      </c>
-      <c r="H11" s="9" t="s">
-        <v>521</v>
-      </c>
-      <c r="I11" s="9" t="s">
-        <v>415</v>
-      </c>
-      <c r="J11" s="9" t="s">
-        <v>277</v>
-      </c>
-      <c r="K11" s="9" t="s">
-        <v>237</v>
-      </c>
       <c r="L11" s="9" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="N11" s="9" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="O11" s="9" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
     </row>
     <row r="12" spans="1:15" ht="51.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -3978,37 +3978,37 @@
         <v>66</v>
       </c>
       <c r="E12" s="9" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="F12" s="9" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="G12" s="9" t="s">
-        <v>414</v>
+        <v>413</v>
       </c>
       <c r="H12" s="9" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="I12" s="9" t="s">
-        <v>417</v>
+        <v>416</v>
       </c>
       <c r="J12" s="9" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="K12" s="9" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="L12" s="9" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="M12" s="9" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="N12" s="9" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="O12" s="9" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
     </row>
     <row r="13" spans="1:15" ht="51.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -4016,46 +4016,46 @@
         <v>4</v>
       </c>
       <c r="B13" s="8" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="C13" s="8" t="s">
         <v>98</v>
       </c>
       <c r="D13" s="8" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="E13" s="9" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="F13" s="9" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="G13" s="9" t="s">
-        <v>414</v>
+        <v>413</v>
       </c>
       <c r="H13" s="9" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="I13" s="9" t="s">
-        <v>417</v>
+        <v>416</v>
       </c>
       <c r="J13" s="9" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="K13" s="9" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="L13" s="9" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="M13" s="9" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="N13" s="9" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="O13" s="9" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
     </row>
     <row r="14" spans="1:15" ht="60" x14ac:dyDescent="0.25">
@@ -4072,37 +4072,37 @@
         <v>100</v>
       </c>
       <c r="E14" s="9" t="s">
-        <v>452</v>
+        <v>451</v>
       </c>
       <c r="F14" s="9" t="s">
+        <v>274</v>
+      </c>
+      <c r="G14" s="9" t="s">
+        <v>454</v>
+      </c>
+      <c r="H14" s="9" t="s">
         <v>275</v>
       </c>
-      <c r="G14" s="9" t="s">
-        <v>455</v>
-      </c>
-      <c r="H14" s="9" t="s">
-        <v>276</v>
-      </c>
       <c r="I14" s="9" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c r="J14" s="9" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="K14" s="9" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="L14" s="9" t="s">
+        <v>290</v>
+      </c>
+      <c r="M14" s="9" t="s">
+        <v>453</v>
+      </c>
+      <c r="N14" s="9" t="s">
         <v>291</v>
       </c>
-      <c r="M14" s="9" t="s">
-        <v>454</v>
-      </c>
-      <c r="N14" s="9" t="s">
-        <v>292</v>
-      </c>
       <c r="O14" s="9" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
     </row>
     <row r="15" spans="1:15" ht="45" x14ac:dyDescent="0.25">
@@ -4119,34 +4119,34 @@
         <v>101</v>
       </c>
       <c r="E15" s="9" t="s">
-        <v>452</v>
+        <v>451</v>
       </c>
       <c r="F15" s="9" t="s">
+        <v>274</v>
+      </c>
+      <c r="G15" s="9" t="s">
+        <v>454</v>
+      </c>
+      <c r="H15" s="9" t="s">
         <v>275</v>
       </c>
-      <c r="G15" s="9" t="s">
-        <v>455</v>
-      </c>
-      <c r="H15" s="9" t="s">
-        <v>276</v>
-      </c>
       <c r="I15" s="9" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c r="J15" s="9" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="K15" s="9" t="s">
-        <v>524</v>
+        <v>523</v>
       </c>
       <c r="L15" s="9" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
       <c r="M15" s="9" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="O15" s="9" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
     </row>
     <row r="16" spans="1:15" ht="45" x14ac:dyDescent="0.25">
@@ -4157,31 +4157,31 @@
         <v>55</v>
       </c>
       <c r="C16" s="8" t="s">
-        <v>484</v>
+        <v>483</v>
       </c>
       <c r="D16" s="8" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="E16" s="9" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
       <c r="F16" s="9" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
       <c r="G16" s="9" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="H16" s="9" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
       <c r="I16" s="9" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
       <c r="J16" s="9" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="K16" s="9" t="s">
-        <v>483</v>
+        <v>482</v>
       </c>
     </row>
     <row r="17" spans="1:15" ht="45" x14ac:dyDescent="0.25">
@@ -4192,31 +4192,31 @@
         <v>146</v>
       </c>
       <c r="C17" s="8" t="s">
-        <v>485</v>
+        <v>484</v>
       </c>
       <c r="D17" s="8" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="E17" s="9" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
       <c r="F17" s="9" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
       <c r="G17" s="9" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="H17" s="9" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
       <c r="I17" s="9" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
       <c r="J17" s="9" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="K17" s="9" t="s">
-        <v>527</v>
+        <v>526</v>
       </c>
     </row>
     <row r="18" spans="1:15" ht="68.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -4233,31 +4233,31 @@
         <v>63</v>
       </c>
       <c r="E18" s="9" t="s">
-        <v>420</v>
+        <v>419</v>
       </c>
       <c r="F18" s="9" t="s">
-        <v>467</v>
+        <v>466</v>
       </c>
       <c r="G18" s="9" t="s">
+        <v>417</v>
+      </c>
+      <c r="H18" s="9" t="s">
+        <v>468</v>
+      </c>
+      <c r="I18" s="9" t="s">
         <v>418</v>
       </c>
-      <c r="H18" s="9" t="s">
-        <v>469</v>
-      </c>
-      <c r="I18" s="9" t="s">
-        <v>419</v>
-      </c>
       <c r="J18" s="9" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="K18" s="9" t="s">
-        <v>476</v>
+        <v>475</v>
       </c>
       <c r="L18" s="9" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="N18" s="9" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
     </row>
     <row r="19" spans="1:15" ht="45.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -4265,40 +4265,40 @@
         <v>25</v>
       </c>
       <c r="B19" s="8" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
       <c r="C19" s="8" t="s">
-        <v>475</v>
+        <v>474</v>
       </c>
       <c r="D19" s="8" t="s">
         <v>64</v>
       </c>
       <c r="E19" s="9" t="s">
-        <v>420</v>
+        <v>419</v>
       </c>
       <c r="F19" s="9" t="s">
-        <v>467</v>
+        <v>466</v>
       </c>
       <c r="G19" s="9" t="s">
+        <v>417</v>
+      </c>
+      <c r="H19" s="9" t="s">
+        <v>468</v>
+      </c>
+      <c r="I19" s="9" t="s">
         <v>418</v>
       </c>
-      <c r="H19" s="9" t="s">
+      <c r="J19" s="9" t="s">
+        <v>276</v>
+      </c>
+      <c r="K19" s="9" t="s">
         <v>469</v>
       </c>
-      <c r="I19" s="9" t="s">
-        <v>419</v>
-      </c>
-      <c r="J19" s="9" t="s">
-        <v>277</v>
-      </c>
-      <c r="K19" s="9" t="s">
-        <v>470</v>
-      </c>
       <c r="L19" s="9" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="N19" s="9" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
     </row>
     <row r="20" spans="1:15" ht="45" x14ac:dyDescent="0.25">
@@ -4315,25 +4315,25 @@
         <v>114</v>
       </c>
       <c r="E20" s="9" t="s">
+        <v>312</v>
+      </c>
+      <c r="F20" s="9" t="s">
         <v>313</v>
       </c>
-      <c r="F20" s="9" t="s">
-        <v>314</v>
-      </c>
       <c r="G20" s="9" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
       <c r="H20" s="9" t="s">
-        <v>322</v>
+        <v>321</v>
       </c>
       <c r="I20" s="9" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
       <c r="J20" s="9" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="K20" s="9" t="s">
-        <v>488</v>
+        <v>487</v>
       </c>
     </row>
     <row r="21" spans="1:15" ht="45" x14ac:dyDescent="0.25">
@@ -4350,25 +4350,25 @@
         <v>113</v>
       </c>
       <c r="E21" s="9" t="s">
+        <v>312</v>
+      </c>
+      <c r="F21" s="9" t="s">
         <v>313</v>
       </c>
-      <c r="F21" s="9" t="s">
-        <v>314</v>
-      </c>
       <c r="G21" s="9" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
       <c r="H21" s="9" t="s">
-        <v>322</v>
+        <v>321</v>
       </c>
       <c r="I21" s="9" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
       <c r="J21" s="9" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="K21" s="9" t="s">
-        <v>487</v>
+        <v>486</v>
       </c>
     </row>
     <row r="22" spans="1:15" ht="60" x14ac:dyDescent="0.25">
@@ -4385,25 +4385,25 @@
         <v>77</v>
       </c>
       <c r="E22" s="9" t="s">
+        <v>328</v>
+      </c>
+      <c r="F22" s="9" t="s">
+        <v>491</v>
+      </c>
+      <c r="G22" s="9" t="s">
         <v>329</v>
       </c>
-      <c r="F22" s="9" t="s">
-        <v>492</v>
-      </c>
-      <c r="G22" s="9" t="s">
-        <v>330</v>
-      </c>
       <c r="H22" s="9" t="s">
+        <v>332</v>
+      </c>
+      <c r="I22" s="9" t="s">
         <v>333</v>
       </c>
-      <c r="I22" s="9" t="s">
-        <v>334</v>
-      </c>
       <c r="J22" s="9" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="K22" s="9" t="s">
-        <v>491</v>
+        <v>490</v>
       </c>
     </row>
     <row r="23" spans="1:15" ht="60" x14ac:dyDescent="0.25">
@@ -4420,25 +4420,25 @@
         <v>78</v>
       </c>
       <c r="E23" s="9" t="s">
+        <v>328</v>
+      </c>
+      <c r="F23" s="9" t="s">
+        <v>491</v>
+      </c>
+      <c r="G23" s="9" t="s">
         <v>329</v>
       </c>
-      <c r="F23" s="9" t="s">
-        <v>492</v>
-      </c>
-      <c r="G23" s="9" t="s">
-        <v>330</v>
-      </c>
       <c r="H23" s="9" t="s">
+        <v>332</v>
+      </c>
+      <c r="I23" s="9" t="s">
         <v>333</v>
       </c>
-      <c r="I23" s="9" t="s">
-        <v>334</v>
-      </c>
       <c r="J23" s="9" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="K23" s="9" t="s">
-        <v>496</v>
+        <v>495</v>
       </c>
     </row>
     <row r="24" spans="1:15" ht="75" x14ac:dyDescent="0.25">
@@ -4455,37 +4455,37 @@
         <v>59</v>
       </c>
       <c r="E24" s="9" t="s">
-        <v>339</v>
+        <v>338</v>
       </c>
       <c r="F24" s="9" t="s">
-        <v>342</v>
+        <v>341</v>
       </c>
       <c r="G24" s="9" t="s">
+        <v>424</v>
+      </c>
+      <c r="H24" s="9" t="s">
+        <v>528</v>
+      </c>
+      <c r="I24" s="9" t="s">
         <v>425</v>
       </c>
-      <c r="H24" s="9" t="s">
-        <v>529</v>
-      </c>
-      <c r="I24" s="9" t="s">
-        <v>426</v>
-      </c>
       <c r="J24" s="9" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="K24" s="9" t="s">
+        <v>346</v>
+      </c>
+      <c r="L24" s="9" t="s">
+        <v>184</v>
+      </c>
+      <c r="M24" s="9" t="s">
         <v>347</v>
       </c>
-      <c r="L24" s="9" t="s">
-        <v>185</v>
-      </c>
-      <c r="M24" s="9" t="s">
+      <c r="N24" s="9" t="s">
+        <v>184</v>
+      </c>
+      <c r="O24" s="9" t="s">
         <v>348</v>
-      </c>
-      <c r="N24" s="9" t="s">
-        <v>185</v>
-      </c>
-      <c r="O24" s="9" t="s">
-        <v>349</v>
       </c>
     </row>
     <row r="25" spans="1:15" ht="75" x14ac:dyDescent="0.25">
@@ -4502,37 +4502,37 @@
         <v>61</v>
       </c>
       <c r="E25" s="9" t="s">
-        <v>339</v>
+        <v>338</v>
       </c>
       <c r="F25" s="9" t="s">
+        <v>341</v>
+      </c>
+      <c r="G25" s="9" t="s">
+        <v>424</v>
+      </c>
+      <c r="H25" s="9" t="s">
+        <v>528</v>
+      </c>
+      <c r="I25" s="9" t="s">
+        <v>425</v>
+      </c>
+      <c r="J25" s="9" t="s">
+        <v>218</v>
+      </c>
+      <c r="K25" s="9" t="s">
         <v>342</v>
       </c>
-      <c r="G25" s="9" t="s">
-        <v>425</v>
-      </c>
-      <c r="H25" s="9" t="s">
-        <v>529</v>
-      </c>
-      <c r="I25" s="9" t="s">
-        <v>426</v>
-      </c>
-      <c r="J25" s="9" t="s">
-        <v>219</v>
-      </c>
-      <c r="K25" s="9" t="s">
-        <v>343</v>
-      </c>
       <c r="L25" s="9" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="M25" s="9" t="s">
-        <v>346</v>
+        <v>345</v>
       </c>
       <c r="N25" s="9" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="O25" s="9" t="s">
-        <v>353</v>
+        <v>352</v>
       </c>
     </row>
     <row r="26" spans="1:15" ht="63.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -4549,31 +4549,31 @@
         <v>111</v>
       </c>
       <c r="E26" s="9" t="s">
-        <v>351</v>
+        <v>350</v>
       </c>
       <c r="F26" s="9" t="s">
-        <v>356</v>
+        <v>355</v>
       </c>
       <c r="G26" s="9" t="s">
+        <v>358</v>
+      </c>
+      <c r="H26" s="9" t="s">
+        <v>363</v>
+      </c>
+      <c r="I26" s="9" t="s">
+        <v>529</v>
+      </c>
+      <c r="J26" s="9" t="s">
+        <v>276</v>
+      </c>
+      <c r="K26" s="9" t="s">
+        <v>360</v>
+      </c>
+      <c r="L26" s="9" t="s">
         <v>359</v>
       </c>
-      <c r="H26" s="9" t="s">
-        <v>364</v>
-      </c>
-      <c r="I26" s="9" t="s">
-        <v>530</v>
-      </c>
-      <c r="J26" s="9" t="s">
-        <v>277</v>
-      </c>
-      <c r="K26" s="9" t="s">
-        <v>361</v>
-      </c>
-      <c r="L26" s="9" t="s">
-        <v>360</v>
-      </c>
       <c r="M26" s="9" t="s">
-        <v>363</v>
+        <v>362</v>
       </c>
     </row>
     <row r="27" spans="1:15" ht="63.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -4590,31 +4590,31 @@
         <v>112</v>
       </c>
       <c r="E27" s="9" t="s">
-        <v>351</v>
+        <v>350</v>
       </c>
       <c r="F27" s="9" t="s">
-        <v>356</v>
+        <v>355</v>
       </c>
       <c r="G27" s="9" t="s">
-        <v>359</v>
+        <v>358</v>
       </c>
       <c r="H27" s="9" t="s">
-        <v>364</v>
+        <v>363</v>
       </c>
       <c r="I27" s="9" t="s">
-        <v>530</v>
+        <v>529</v>
       </c>
       <c r="J27" s="9" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="K27" s="9" t="s">
-        <v>362</v>
+        <v>361</v>
       </c>
       <c r="L27" s="9" t="s">
+        <v>366</v>
+      </c>
+      <c r="M27" s="9" t="s">
         <v>367</v>
-      </c>
-      <c r="M27" s="9" t="s">
-        <v>368</v>
       </c>
     </row>
     <row r="28" spans="1:15" ht="45" x14ac:dyDescent="0.25">
@@ -4631,28 +4631,28 @@
         <v>128</v>
       </c>
       <c r="E28" s="9" t="s">
-        <v>369</v>
+        <v>368</v>
       </c>
       <c r="F28" s="9" t="s">
+        <v>390</v>
+      </c>
+      <c r="G28" s="9" t="s">
+        <v>358</v>
+      </c>
+      <c r="H28" s="15" t="s">
+        <v>476</v>
+      </c>
+      <c r="I28" s="9" t="s">
+        <v>370</v>
+      </c>
+      <c r="J28" s="9" t="s">
+        <v>223</v>
+      </c>
+      <c r="K28" s="9" t="s">
         <v>391</v>
       </c>
-      <c r="G28" s="9" t="s">
-        <v>359</v>
-      </c>
-      <c r="H28" s="15" t="s">
-        <v>477</v>
-      </c>
-      <c r="I28" s="9" t="s">
-        <v>371</v>
-      </c>
-      <c r="J28" s="9" t="s">
-        <v>224</v>
-      </c>
-      <c r="K28" s="9" t="s">
-        <v>392</v>
-      </c>
       <c r="O28" s="9" t="s">
-        <v>482</v>
+        <v>481</v>
       </c>
     </row>
     <row r="29" spans="1:15" ht="45" x14ac:dyDescent="0.25">
@@ -4669,25 +4669,25 @@
         <v>127</v>
       </c>
       <c r="E29" s="9" t="s">
-        <v>369</v>
+        <v>368</v>
       </c>
       <c r="F29" s="9" t="s">
-        <v>391</v>
+        <v>390</v>
       </c>
       <c r="G29" s="9" t="s">
-        <v>359</v>
+        <v>358</v>
       </c>
       <c r="H29" s="15" t="s">
-        <v>477</v>
+        <v>476</v>
       </c>
       <c r="I29" s="9" t="s">
-        <v>371</v>
+        <v>370</v>
       </c>
       <c r="J29" s="9" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="K29" s="9" t="s">
-        <v>531</v>
+        <v>530</v>
       </c>
     </row>
     <row r="30" spans="1:15" ht="45" x14ac:dyDescent="0.25">
@@ -4698,40 +4698,40 @@
         <v>129</v>
       </c>
       <c r="C30" s="8" t="s">
-        <v>338</v>
+        <v>337</v>
       </c>
       <c r="D30" s="8" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
       <c r="E30" s="9" t="s">
-        <v>374</v>
+        <v>373</v>
       </c>
       <c r="F30" s="9" t="s">
-        <v>373</v>
+        <v>372</v>
       </c>
       <c r="G30" s="9" t="s">
+        <v>426</v>
+      </c>
+      <c r="H30" s="9" t="s">
+        <v>371</v>
+      </c>
+      <c r="I30" s="9" t="s">
         <v>427</v>
       </c>
-      <c r="H30" s="9" t="s">
-        <v>372</v>
-      </c>
-      <c r="I30" s="9" t="s">
-        <v>428</v>
-      </c>
       <c r="J30" s="9" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="K30" s="9" t="s">
-        <v>377</v>
+        <v>376</v>
       </c>
       <c r="L30" s="9" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="M30" s="9" t="s">
-        <v>380</v>
+        <v>379</v>
       </c>
       <c r="N30" s="9" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
     </row>
     <row r="31" spans="1:15" ht="45" x14ac:dyDescent="0.25">
@@ -4739,7 +4739,7 @@
         <v>130</v>
       </c>
       <c r="B31" s="8" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="C31" s="8" t="s">
         <v>57</v>
@@ -4748,34 +4748,34 @@
         <v>74</v>
       </c>
       <c r="E31" s="9" t="s">
-        <v>374</v>
+        <v>373</v>
       </c>
       <c r="F31" s="9" t="s">
-        <v>373</v>
+        <v>372</v>
       </c>
       <c r="G31" s="9" t="s">
+        <v>426</v>
+      </c>
+      <c r="H31" s="9" t="s">
+        <v>371</v>
+      </c>
+      <c r="I31" s="9" t="s">
         <v>427</v>
       </c>
-      <c r="H31" s="9" t="s">
-        <v>372</v>
-      </c>
-      <c r="I31" s="9" t="s">
-        <v>428</v>
-      </c>
       <c r="J31" s="9" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="K31" s="9" t="s">
+        <v>377</v>
+      </c>
+      <c r="L31" s="9" t="s">
+        <v>184</v>
+      </c>
+      <c r="M31" s="9" t="s">
         <v>378</v>
       </c>
-      <c r="L31" s="9" t="s">
-        <v>185</v>
-      </c>
-      <c r="M31" s="9" t="s">
-        <v>379</v>
-      </c>
       <c r="N31" s="9" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
     </row>
     <row r="32" spans="1:15" ht="45" x14ac:dyDescent="0.25">
@@ -4792,31 +4792,31 @@
         <v>110</v>
       </c>
       <c r="E32" s="9" t="s">
-        <v>381</v>
+        <v>380</v>
       </c>
       <c r="F32" s="9" t="s">
-        <v>389</v>
+        <v>388</v>
       </c>
       <c r="G32" s="9" t="s">
-        <v>396</v>
+        <v>395</v>
       </c>
       <c r="H32" s="9" t="s">
+        <v>399</v>
+      </c>
+      <c r="I32" s="9" t="s">
         <v>400</v>
       </c>
-      <c r="I32" s="9" t="s">
-        <v>401</v>
-      </c>
       <c r="J32" s="9" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="K32" s="9" t="s">
-        <v>499</v>
+        <v>498</v>
       </c>
       <c r="M32" s="9" t="s">
-        <v>395</v>
+        <v>394</v>
       </c>
       <c r="O32" s="9" t="s">
-        <v>388</v>
+        <v>387</v>
       </c>
     </row>
     <row r="33" spans="1:15" ht="45" x14ac:dyDescent="0.25">
@@ -4833,28 +4833,28 @@
         <v>109</v>
       </c>
       <c r="E33" s="9" t="s">
-        <v>381</v>
+        <v>380</v>
       </c>
       <c r="F33" s="9" t="s">
-        <v>389</v>
+        <v>388</v>
       </c>
       <c r="G33" s="9" t="s">
-        <v>396</v>
+        <v>395</v>
       </c>
       <c r="H33" s="9" t="s">
-        <v>502</v>
+        <v>501</v>
       </c>
       <c r="I33" s="9" t="s">
-        <v>401</v>
+        <v>400</v>
       </c>
       <c r="J33" s="9" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="K33" s="9" t="s">
-        <v>501</v>
+        <v>500</v>
       </c>
       <c r="O33" s="9" t="s">
-        <v>500</v>
+        <v>499</v>
       </c>
     </row>
     <row r="34" spans="1:15" ht="45" x14ac:dyDescent="0.25">
@@ -4871,25 +4871,25 @@
         <v>134</v>
       </c>
       <c r="E34" s="9" t="s">
-        <v>404</v>
+        <v>403</v>
       </c>
       <c r="F34" s="9" t="s">
-        <v>409</v>
+        <v>408</v>
       </c>
       <c r="G34" s="9" t="s">
+        <v>406</v>
+      </c>
+      <c r="H34" s="9" t="s">
+        <v>531</v>
+      </c>
+      <c r="I34" s="9" t="s">
+        <v>428</v>
+      </c>
+      <c r="J34" s="9" t="s">
+        <v>220</v>
+      </c>
+      <c r="K34" s="9" t="s">
         <v>407</v>
-      </c>
-      <c r="H34" s="9" t="s">
-        <v>532</v>
-      </c>
-      <c r="I34" s="9" t="s">
-        <v>429</v>
-      </c>
-      <c r="J34" s="9" t="s">
-        <v>221</v>
-      </c>
-      <c r="K34" s="9" t="s">
-        <v>408</v>
       </c>
     </row>
     <row r="35" spans="1:15" ht="45" x14ac:dyDescent="0.25">
@@ -4906,25 +4906,25 @@
         <v>135</v>
       </c>
       <c r="E35" s="9" t="s">
-        <v>404</v>
+        <v>403</v>
       </c>
       <c r="F35" s="9" t="s">
-        <v>409</v>
+        <v>408</v>
       </c>
       <c r="G35" s="9" t="s">
-        <v>407</v>
+        <v>406</v>
       </c>
       <c r="H35" s="9" t="s">
-        <v>532</v>
+        <v>531</v>
       </c>
       <c r="I35" s="9" t="s">
-        <v>429</v>
+        <v>428</v>
       </c>
       <c r="J35" s="9" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="K35" s="9" t="s">
-        <v>536</v>
+        <v>535</v>
       </c>
     </row>
     <row r="36" spans="1:15" ht="45" x14ac:dyDescent="0.25">
@@ -4941,34 +4941,34 @@
         <v>72</v>
       </c>
       <c r="E36" s="9" t="s">
-        <v>432</v>
+        <v>431</v>
       </c>
       <c r="F36" s="9" t="s">
-        <v>346</v>
+        <v>345</v>
       </c>
       <c r="G36" s="9" t="s">
-        <v>543</v>
+        <v>542</v>
       </c>
       <c r="H36" s="9" t="s">
-        <v>434</v>
+        <v>433</v>
       </c>
       <c r="I36" s="9" t="s">
+        <v>502</v>
+      </c>
+      <c r="J36" s="9" t="s">
+        <v>222</v>
+      </c>
+      <c r="K36" s="9" t="s">
         <v>503</v>
       </c>
-      <c r="J36" s="9" t="s">
-        <v>223</v>
-      </c>
-      <c r="K36" s="9" t="s">
-        <v>504</v>
-      </c>
       <c r="L36" s="9" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="M36" s="9" t="s">
         <v>73</v>
       </c>
       <c r="N36" s="9" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
     </row>
     <row r="37" spans="1:15" ht="84.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -4985,34 +4985,34 @@
         <v>75</v>
       </c>
       <c r="E37" s="9" t="s">
-        <v>537</v>
+        <v>536</v>
       </c>
       <c r="F37" s="9" t="s">
-        <v>346</v>
+        <v>345</v>
       </c>
       <c r="G37" s="9" t="s">
-        <v>543</v>
+        <v>542</v>
       </c>
       <c r="H37" s="9" t="s">
-        <v>434</v>
+        <v>433</v>
       </c>
       <c r="I37" s="9" t="s">
-        <v>503</v>
+        <v>502</v>
       </c>
       <c r="J37" s="9" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="K37" s="9" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="L37" s="9" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="M37" s="9" t="s">
-        <v>505</v>
+        <v>504</v>
       </c>
       <c r="N37" s="9" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
     </row>
     <row r="38" spans="1:15" ht="45" x14ac:dyDescent="0.25">
@@ -5029,25 +5029,25 @@
         <v>132</v>
       </c>
       <c r="E38" s="9" t="s">
-        <v>437</v>
+        <v>436</v>
       </c>
       <c r="F38" s="9" t="s">
-        <v>439</v>
+        <v>438</v>
       </c>
       <c r="G38" s="9" t="s">
+        <v>444</v>
+      </c>
+      <c r="H38" s="9" t="s">
         <v>445</v>
       </c>
-      <c r="H38" s="9" t="s">
-        <v>446</v>
-      </c>
       <c r="I38" s="9" t="s">
-        <v>444</v>
+        <v>443</v>
       </c>
       <c r="J38" s="9" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="K38" s="9" t="s">
-        <v>506</v>
+        <v>505</v>
       </c>
     </row>
     <row r="39" spans="1:15" ht="45" x14ac:dyDescent="0.25">
@@ -5064,25 +5064,25 @@
         <v>133</v>
       </c>
       <c r="E39" s="9" t="s">
-        <v>437</v>
+        <v>436</v>
       </c>
       <c r="F39" s="9" t="s">
-        <v>439</v>
+        <v>438</v>
       </c>
       <c r="G39" s="9" t="s">
+        <v>444</v>
+      </c>
+      <c r="H39" s="9" t="s">
         <v>445</v>
       </c>
-      <c r="H39" s="9" t="s">
-        <v>446</v>
-      </c>
       <c r="I39" s="9" t="s">
-        <v>444</v>
+        <v>443</v>
       </c>
       <c r="J39" s="9" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="K39" s="9" t="s">
-        <v>507</v>
+        <v>506</v>
       </c>
     </row>
     <row r="40" spans="1:15" ht="60" x14ac:dyDescent="0.25">
@@ -5099,25 +5099,25 @@
         <v>121</v>
       </c>
       <c r="E40" s="9" t="s">
-        <v>451</v>
+        <v>450</v>
       </c>
       <c r="F40" s="9" t="s">
-        <v>456</v>
+        <v>455</v>
       </c>
       <c r="G40" s="9" t="s">
+        <v>458</v>
+      </c>
+      <c r="H40" s="9" t="s">
+        <v>462</v>
+      </c>
+      <c r="I40" s="9" t="s">
         <v>459</v>
       </c>
-      <c r="H40" s="9" t="s">
-        <v>463</v>
-      </c>
-      <c r="I40" s="9" t="s">
-        <v>460</v>
-      </c>
       <c r="J40" s="9" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="K40" s="9" t="s">
-        <v>508</v>
+        <v>507</v>
       </c>
     </row>
     <row r="41" spans="1:15" ht="60" x14ac:dyDescent="0.25">
@@ -5134,35 +5134,35 @@
         <v>122</v>
       </c>
       <c r="E41" s="9" t="s">
-        <v>451</v>
+        <v>450</v>
       </c>
       <c r="F41" s="9" t="s">
-        <v>456</v>
+        <v>455</v>
       </c>
       <c r="G41" s="9" t="s">
+        <v>458</v>
+      </c>
+      <c r="H41" s="9" t="s">
+        <v>462</v>
+      </c>
+      <c r="I41" s="9" t="s">
         <v>459</v>
       </c>
-      <c r="H41" s="9" t="s">
-        <v>463</v>
-      </c>
-      <c r="I41" s="9" t="s">
-        <v>460</v>
-      </c>
       <c r="J41" s="9" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="K41" s="9" t="s">
-        <v>511</v>
+        <v>510</v>
       </c>
     </row>
     <row r="49" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A49" s="8" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
     </row>
     <row r="50" spans="1:2" ht="18.75" x14ac:dyDescent="0.25">
       <c r="A50" s="8" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="B50" s="13">
         <f>SUMPRODUCT((LEN($B$2:$B$41)-LEN(SUBSTITUTE($B$2:$B$41,A50,"")))/LEN(A50))</f>
@@ -5171,7 +5171,7 @@
     </row>
     <row r="51" spans="1:2" ht="18.75" x14ac:dyDescent="0.25">
       <c r="A51" s="8" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="B51" s="13">
         <f t="shared" ref="B51:B55" si="0">SUMPRODUCT((LEN($B$2:$B$41)-LEN(SUBSTITUTE($B$2:$B$41,A51,"")))/LEN(A51))</f>
@@ -5180,7 +5180,7 @@
     </row>
     <row r="52" spans="1:2" ht="18.75" x14ac:dyDescent="0.25">
       <c r="A52" s="8" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="B52" s="13">
         <f t="shared" si="0"/>
@@ -5189,7 +5189,7 @@
     </row>
     <row r="53" spans="1:2" ht="18.75" x14ac:dyDescent="0.25">
       <c r="A53" s="8" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="B53" s="13">
         <f t="shared" si="0"/>
@@ -5198,7 +5198,7 @@
     </row>
     <row r="54" spans="1:2" ht="18.75" x14ac:dyDescent="0.25">
       <c r="A54" s="8" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="B54" s="13">
         <f t="shared" si="0"/>
@@ -5207,7 +5207,7 @@
     </row>
     <row r="55" spans="1:2" ht="18.75" x14ac:dyDescent="0.25">
       <c r="A55" s="8" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="B55" s="13">
         <f t="shared" si="0"/>
@@ -5250,7 +5250,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2C95D906-8738-4C5E-A233-382EB45728A2}">
   <dimension ref="A1:I76"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C10" workbookViewId="0">
+    <sheetView topLeftCell="C10" workbookViewId="0">
       <selection activeCell="F12" sqref="F12"/>
     </sheetView>
   </sheetViews>
@@ -5270,303 +5270,303 @@
   <sheetData>
     <row r="1" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A1" s="8" t="s">
+        <v>163</v>
+      </c>
+      <c r="B1" s="8" t="s">
+        <v>168</v>
+      </c>
+      <c r="C1" s="8" t="s">
+        <v>169</v>
+      </c>
+      <c r="E1" s="8" t="s">
+        <v>167</v>
+      </c>
+      <c r="G1" s="8" t="s">
         <v>164</v>
-      </c>
-      <c r="B1" s="8" t="s">
-        <v>169</v>
-      </c>
-      <c r="C1" s="8" t="s">
-        <v>170</v>
-      </c>
-      <c r="E1" s="8" t="s">
-        <v>168</v>
-      </c>
-      <c r="G1" s="8" t="s">
-        <v>165</v>
       </c>
       <c r="H1" s="8" t="s">
         <v>41</v>
       </c>
       <c r="I1" s="12" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
     </row>
     <row r="2" spans="1:9" ht="45" x14ac:dyDescent="0.25">
       <c r="A2" s="8" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="B2" s="8" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="C2" s="8" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="E2" s="8" t="s">
         <v>153</v>
       </c>
       <c r="F2" s="8" t="s">
-        <v>514</v>
+        <v>513</v>
       </c>
       <c r="G2" s="8" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="H2" s="8" t="s">
         <v>136</v>
       </c>
       <c r="I2" s="12" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
     </row>
     <row r="3" spans="1:9" ht="105" x14ac:dyDescent="0.25">
       <c r="A3" s="8" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="B3" s="8" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="C3" s="8" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="E3" s="8" t="s">
+        <v>173</v>
+      </c>
+      <c r="F3" s="8" t="s">
+        <v>187</v>
+      </c>
+      <c r="G3" s="8" t="s">
         <v>174</v>
       </c>
-      <c r="F3" s="8" t="s">
-        <v>188</v>
-      </c>
-      <c r="G3" s="8" t="s">
-        <v>175</v>
-      </c>
       <c r="H3" s="8" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="I3" s="12" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
     </row>
     <row r="4" spans="1:9" ht="60" x14ac:dyDescent="0.25">
       <c r="A4" s="8" t="s">
+        <v>161</v>
+      </c>
+      <c r="B4" s="8" t="s">
         <v>162</v>
       </c>
-      <c r="B4" s="8" t="s">
-        <v>163</v>
-      </c>
       <c r="C4" s="8" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="E4" s="8" t="s">
+        <v>190</v>
+      </c>
+      <c r="F4" s="8" t="s">
+        <v>199</v>
+      </c>
+      <c r="G4" s="8" t="s">
         <v>191</v>
-      </c>
-      <c r="F4" s="8" t="s">
-        <v>200</v>
-      </c>
-      <c r="G4" s="8" t="s">
-        <v>192</v>
       </c>
       <c r="H4" s="8" t="s">
         <v>141</v>
       </c>
       <c r="I4" s="12" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
     </row>
     <row r="5" spans="1:9" ht="45" x14ac:dyDescent="0.25">
       <c r="A5" s="8" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="B5" s="8" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="C5" s="8" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="E5" s="8" t="s">
+        <v>197</v>
+      </c>
+      <c r="F5" s="8" t="s">
+        <v>201</v>
+      </c>
+      <c r="G5" s="8" t="s">
         <v>198</v>
-      </c>
-      <c r="F5" s="8" t="s">
-        <v>202</v>
-      </c>
-      <c r="G5" s="8" t="s">
-        <v>199</v>
       </c>
       <c r="H5" s="8" t="s">
         <v>141</v>
       </c>
       <c r="I5" s="12" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
     </row>
     <row r="6" spans="1:9" ht="60" x14ac:dyDescent="0.25">
       <c r="A6" s="8" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="B6" s="8" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="C6" s="8" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="E6" s="8" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="F6" s="8" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="G6" s="8" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="H6" s="8" t="s">
         <v>141</v>
       </c>
       <c r="I6" s="12" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
     </row>
     <row r="7" spans="1:9" ht="60" x14ac:dyDescent="0.25">
       <c r="A7" s="8" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="C7" s="8" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="E7" s="8" t="s">
-        <v>517</v>
+        <v>516</v>
       </c>
       <c r="F7" s="8" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="G7" s="8" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="H7" s="8" t="s">
         <v>141</v>
       </c>
       <c r="I7" s="12" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
     </row>
     <row r="8" spans="1:9" ht="90" x14ac:dyDescent="0.25">
       <c r="A8" s="8" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="C8" s="8" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="E8" s="8" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="F8" s="8" t="s">
+        <v>207</v>
+      </c>
+      <c r="G8" s="8" t="s">
         <v>208</v>
-      </c>
-      <c r="G8" s="8" t="s">
-        <v>209</v>
       </c>
       <c r="H8" s="8" t="s">
         <v>141</v>
       </c>
       <c r="I8" s="12" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
     </row>
     <row r="9" spans="1:9" ht="60" x14ac:dyDescent="0.25">
       <c r="A9" s="8" t="s">
+        <v>177</v>
+      </c>
+      <c r="C9" s="8" t="s">
         <v>178</v>
       </c>
-      <c r="C9" s="8" t="s">
-        <v>179</v>
-      </c>
       <c r="E9" s="8" t="s">
+        <v>237</v>
+      </c>
+      <c r="F9" s="14" t="s">
         <v>238</v>
       </c>
-      <c r="F9" s="14" t="s">
-        <v>239</v>
-      </c>
       <c r="G9" s="8" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="H9" s="8" t="s">
         <v>9</v>
       </c>
       <c r="I9" s="12" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
     </row>
     <row r="10" spans="1:9" ht="75" x14ac:dyDescent="0.25">
       <c r="E10" s="8" t="s">
+        <v>421</v>
+      </c>
+      <c r="F10" s="14" t="s">
         <v>422</v>
       </c>
-      <c r="F10" s="14" t="s">
-        <v>423</v>
-      </c>
       <c r="G10" s="8" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="H10" s="8" t="s">
         <v>9</v>
       </c>
       <c r="I10" s="12" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
     </row>
     <row r="11" spans="1:9" ht="60" x14ac:dyDescent="0.25">
       <c r="E11" s="8" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="F11" s="8" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="G11" s="8" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="H11" s="8" t="s">
+        <v>241</v>
+      </c>
+      <c r="I11" s="12" t="s">
         <v>242</v>
-      </c>
-      <c r="I11" s="12" t="s">
-        <v>243</v>
       </c>
     </row>
     <row r="12" spans="1:9" ht="60" x14ac:dyDescent="0.25">
       <c r="E12" s="8" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="F12" s="8" t="s">
-        <v>546</v>
+        <v>545</v>
       </c>
       <c r="G12" s="8" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="H12" s="8" t="s">
         <v>4</v>
       </c>
       <c r="I12" s="12" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
     </row>
     <row r="13" spans="1:9" ht="75" x14ac:dyDescent="0.25">
       <c r="E13" s="8" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="F13" s="8" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="G13" s="8" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="H13" s="8" t="s">
         <v>4</v>
       </c>
       <c r="I13" s="12" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
     </row>
     <row r="14" spans="1:9" ht="75" x14ac:dyDescent="0.25">
       <c r="E14" s="8" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="F14" s="8" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="G14" s="8" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="H14" s="8" t="s">
         <v>4</v>
@@ -5577,13 +5577,13 @@
     </row>
     <row r="15" spans="1:9" ht="60" x14ac:dyDescent="0.25">
       <c r="E15" s="8" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="F15" s="8" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="G15" s="8" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="H15" s="8" t="s">
         <v>4</v>
@@ -5594,13 +5594,13 @@
     </row>
     <row r="16" spans="1:9" ht="75" x14ac:dyDescent="0.25">
       <c r="E16" s="8" t="s">
+        <v>266</v>
+      </c>
+      <c r="F16" s="8" t="s">
         <v>267</v>
       </c>
-      <c r="F16" s="8" t="s">
-        <v>268</v>
-      </c>
       <c r="G16" s="8" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="H16" s="8" t="s">
         <v>43</v>
@@ -5611,13 +5611,13 @@
     </row>
     <row r="17" spans="5:9" ht="60" x14ac:dyDescent="0.25">
       <c r="E17" s="8" t="s">
+        <v>385</v>
+      </c>
+      <c r="F17" s="8" t="s">
         <v>386</v>
       </c>
-      <c r="F17" s="8" t="s">
-        <v>387</v>
-      </c>
       <c r="G17" s="8" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="H17" s="8" t="s">
         <v>43</v>
@@ -5628,13 +5628,13 @@
     </row>
     <row r="18" spans="5:9" ht="60" x14ac:dyDescent="0.25">
       <c r="E18" s="8" t="s">
+        <v>518</v>
+      </c>
+      <c r="F18" s="8" t="s">
         <v>519</v>
       </c>
-      <c r="F18" s="8" t="s">
-        <v>520</v>
-      </c>
       <c r="G18" s="8" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="H18" s="8" t="s">
         <v>43</v>
@@ -5645,47 +5645,47 @@
     </row>
     <row r="19" spans="5:9" ht="75" x14ac:dyDescent="0.25">
       <c r="E19" s="8" t="s">
+        <v>271</v>
+      </c>
+      <c r="F19" s="8" t="s">
+        <v>278</v>
+      </c>
+      <c r="G19" s="8" t="s">
         <v>272</v>
-      </c>
-      <c r="F19" s="8" t="s">
-        <v>279</v>
-      </c>
-      <c r="G19" s="8" t="s">
-        <v>273</v>
       </c>
       <c r="H19" s="8" t="s">
         <v>84</v>
       </c>
       <c r="I19" s="12" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
     </row>
     <row r="20" spans="5:9" ht="30" x14ac:dyDescent="0.25">
       <c r="E20" s="8" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="F20" s="8" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
       <c r="G20" s="8" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="H20" s="8" t="s">
         <v>84</v>
       </c>
       <c r="I20" s="12" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
     </row>
     <row r="21" spans="5:9" ht="75" x14ac:dyDescent="0.25">
       <c r="E21" s="8" t="s">
+        <v>282</v>
+      </c>
+      <c r="F21" s="8" t="s">
         <v>283</v>
       </c>
-      <c r="F21" s="8" t="s">
-        <v>284</v>
-      </c>
       <c r="G21" s="8" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="H21" s="8" t="s">
         <v>84</v>
@@ -5696,47 +5696,47 @@
     </row>
     <row r="22" spans="5:9" ht="45" x14ac:dyDescent="0.25">
       <c r="E22" s="8" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="F22" s="8" t="s">
-        <v>523</v>
+        <v>522</v>
       </c>
       <c r="G22" s="8" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="H22" s="8" t="s">
         <v>84</v>
       </c>
       <c r="I22" s="12" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
     </row>
     <row r="23" spans="5:9" ht="150" x14ac:dyDescent="0.25">
       <c r="E23" s="8" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="F23" s="8" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
       <c r="G23" s="8" t="s">
-        <v>522</v>
+        <v>521</v>
       </c>
       <c r="H23" s="8" t="s">
         <v>84</v>
       </c>
       <c r="I23" s="12" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
     </row>
     <row r="24" spans="5:9" ht="60" x14ac:dyDescent="0.25">
       <c r="E24" s="8" t="s">
+        <v>293</v>
+      </c>
+      <c r="F24" s="8" t="s">
         <v>294</v>
       </c>
-      <c r="F24" s="8" t="s">
-        <v>295</v>
-      </c>
       <c r="G24" s="8" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="H24" s="8" t="s">
         <v>84</v>
@@ -5747,7 +5747,7 @@
     </row>
     <row r="25" spans="5:9" x14ac:dyDescent="0.25">
       <c r="E25" s="8" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
       <c r="H25" s="8" t="s">
         <v>84</v>
@@ -5758,13 +5758,13 @@
     </row>
     <row r="26" spans="5:9" ht="75" x14ac:dyDescent="0.25">
       <c r="E26" s="8" t="s">
+        <v>296</v>
+      </c>
+      <c r="F26" s="8" t="s">
         <v>297</v>
       </c>
-      <c r="F26" s="8" t="s">
-        <v>298</v>
-      </c>
       <c r="G26" s="8" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="H26" s="8" t="s">
         <v>84</v>
@@ -5775,10 +5775,10 @@
     </row>
     <row r="27" spans="5:9" x14ac:dyDescent="0.25">
       <c r="E27" s="8" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
       <c r="G27" s="8" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="H27" s="8" t="s">
         <v>84</v>
@@ -5789,10 +5789,10 @@
     </row>
     <row r="28" spans="5:9" x14ac:dyDescent="0.25">
       <c r="E28" s="8" t="s">
-        <v>301</v>
+        <v>300</v>
       </c>
       <c r="G28" s="8" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="H28" s="8" t="s">
         <v>84</v>
@@ -5800,53 +5800,53 @@
     </row>
     <row r="29" spans="5:9" ht="105" x14ac:dyDescent="0.25">
       <c r="E29" s="8" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
       <c r="F29" s="8" t="s">
-        <v>486</v>
+        <v>485</v>
       </c>
       <c r="G29" s="8" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="H29" s="8" t="s">
         <v>117</v>
       </c>
       <c r="I29" s="12" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
     </row>
     <row r="30" spans="5:9" ht="120" x14ac:dyDescent="0.25">
       <c r="E30" s="8" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
       <c r="F30" s="8" t="s">
-        <v>525</v>
+        <v>524</v>
       </c>
       <c r="G30" s="8" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="H30" s="8" t="s">
         <v>117</v>
       </c>
       <c r="I30" s="12" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
     </row>
     <row r="31" spans="5:9" ht="60" x14ac:dyDescent="0.25">
       <c r="E31" s="8" t="s">
+        <v>308</v>
+      </c>
+      <c r="F31" s="8" t="s">
         <v>309</v>
       </c>
-      <c r="F31" s="8" t="s">
-        <v>310</v>
-      </c>
       <c r="G31" s="8" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="H31" s="8" t="s">
         <v>117</v>
       </c>
       <c r="I31" s="12" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
     </row>
     <row r="32" spans="5:9" ht="90" x14ac:dyDescent="0.25">
@@ -5854,149 +5854,149 @@
         <v>116</v>
       </c>
       <c r="F32" s="8" t="s">
-        <v>526</v>
+        <v>525</v>
       </c>
       <c r="G32" s="8" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="H32" s="8" t="s">
         <v>117</v>
       </c>
       <c r="I32" s="12" t="s">
-        <v>484</v>
+        <v>483</v>
       </c>
     </row>
     <row r="33" spans="5:9" ht="105" x14ac:dyDescent="0.25">
       <c r="E33" s="8" t="s">
-        <v>466</v>
+        <v>465</v>
       </c>
       <c r="F33" s="8" t="s">
-        <v>540</v>
+        <v>539</v>
       </c>
       <c r="G33" s="8" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="H33" s="8" t="s">
         <v>25</v>
       </c>
       <c r="I33" s="12" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
     </row>
     <row r="34" spans="5:9" ht="45" x14ac:dyDescent="0.25">
       <c r="E34" s="8" t="s">
-        <v>468</v>
+        <v>467</v>
       </c>
       <c r="F34" s="8" t="s">
-        <v>528</v>
+        <v>527</v>
       </c>
       <c r="G34" s="8" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="H34" s="8" t="s">
         <v>25</v>
       </c>
       <c r="I34" s="12" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
     </row>
     <row r="35" spans="5:9" ht="45" x14ac:dyDescent="0.25">
       <c r="E35" s="8" t="s">
+        <v>471</v>
+      </c>
+      <c r="F35" s="8" t="s">
         <v>472</v>
       </c>
-      <c r="F35" s="8" t="s">
-        <v>473</v>
-      </c>
       <c r="G35" s="8" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="H35" s="8" t="s">
         <v>25</v>
       </c>
       <c r="I35" s="12" t="s">
-        <v>474</v>
+        <v>473</v>
       </c>
     </row>
     <row r="36" spans="5:9" ht="60" x14ac:dyDescent="0.25">
       <c r="E36" s="8" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
       <c r="F36" s="8" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
       <c r="G36" s="8" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="H36" s="8" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
       <c r="I36" s="12" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
     </row>
     <row r="37" spans="5:9" ht="90" x14ac:dyDescent="0.25">
       <c r="E37" s="8" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="F37" s="8" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
       <c r="G37" s="8" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="H37" s="8" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
       <c r="I37" s="12" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
     </row>
     <row r="38" spans="5:9" ht="120" x14ac:dyDescent="0.25">
       <c r="E38" s="8" t="s">
-        <v>318</v>
+        <v>317</v>
       </c>
       <c r="F38" s="8" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
       <c r="G38" s="8" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="H38" s="8" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
       <c r="I38" s="12" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
     </row>
     <row r="39" spans="5:9" ht="45" x14ac:dyDescent="0.25">
       <c r="E39" s="8" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
       <c r="F39" s="8" t="s">
+        <v>324</v>
+      </c>
+      <c r="G39" s="8" t="s">
         <v>325</v>
       </c>
-      <c r="G39" s="8" t="s">
-        <v>326</v>
-      </c>
       <c r="H39" s="8" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
       <c r="I39" s="12" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
     </row>
     <row r="40" spans="5:9" ht="90" x14ac:dyDescent="0.25">
       <c r="E40" s="8" t="s">
+        <v>488</v>
+      </c>
+      <c r="F40" s="8" t="s">
         <v>489</v>
       </c>
-      <c r="F40" s="8" t="s">
-        <v>490</v>
-      </c>
       <c r="G40" s="8" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="H40" s="8" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
       <c r="I40" s="12" t="s">
         <v>86</v>
@@ -6004,81 +6004,81 @@
     </row>
     <row r="41" spans="5:9" ht="60" x14ac:dyDescent="0.25">
       <c r="E41" s="8" t="s">
+        <v>326</v>
+      </c>
+      <c r="F41" s="8" t="s">
         <v>327</v>
       </c>
-      <c r="F41" s="8" t="s">
-        <v>328</v>
-      </c>
       <c r="G41" s="8" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="H41" s="8" t="s">
         <v>82</v>
       </c>
       <c r="I41" s="12" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
     </row>
     <row r="42" spans="5:9" ht="60" x14ac:dyDescent="0.25">
       <c r="E42" s="8" t="s">
-        <v>495</v>
+        <v>494</v>
       </c>
       <c r="F42" s="8" t="s">
-        <v>336</v>
+        <v>335</v>
       </c>
       <c r="G42" s="8" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="H42" s="8" t="s">
         <v>82</v>
       </c>
       <c r="I42" s="12" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
     </row>
     <row r="43" spans="5:9" ht="90" x14ac:dyDescent="0.25">
       <c r="E43" s="8" t="s">
+        <v>330</v>
+      </c>
+      <c r="F43" s="8" t="s">
         <v>331</v>
       </c>
-      <c r="F43" s="8" t="s">
-        <v>332</v>
-      </c>
       <c r="G43" s="8" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="H43" s="8" t="s">
         <v>82</v>
       </c>
       <c r="I43" s="12" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
     </row>
     <row r="44" spans="5:9" ht="75" x14ac:dyDescent="0.25">
       <c r="E44" s="8" t="s">
-        <v>335</v>
+        <v>334</v>
       </c>
       <c r="F44" s="8" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
       <c r="G44" s="8" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="H44" s="8" t="s">
         <v>82</v>
       </c>
       <c r="I44" s="12" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
     </row>
     <row r="45" spans="5:9" ht="75" x14ac:dyDescent="0.25">
       <c r="E45" s="8" t="s">
+        <v>492</v>
+      </c>
+      <c r="F45" s="8" t="s">
         <v>493</v>
       </c>
-      <c r="F45" s="8" t="s">
-        <v>494</v>
-      </c>
       <c r="G45" s="8" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="H45" s="8" t="s">
         <v>82</v>
@@ -6089,13 +6089,13 @@
     </row>
     <row r="46" spans="5:9" ht="75" x14ac:dyDescent="0.25">
       <c r="E46" s="8" t="s">
+        <v>496</v>
+      </c>
+      <c r="F46" s="8" t="s">
         <v>497</v>
       </c>
-      <c r="F46" s="8" t="s">
-        <v>498</v>
-      </c>
       <c r="G46" s="8" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="H46" s="8" t="s">
         <v>82</v>
@@ -6106,149 +6106,149 @@
     </row>
     <row r="47" spans="5:9" ht="45" x14ac:dyDescent="0.25">
       <c r="E47" s="8" t="s">
+        <v>339</v>
+      </c>
+      <c r="F47" s="8" t="s">
         <v>340</v>
       </c>
-      <c r="F47" s="8" t="s">
-        <v>341</v>
-      </c>
       <c r="G47" s="8" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="H47" s="8" t="s">
         <v>131</v>
       </c>
       <c r="I47" s="12" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
     </row>
     <row r="48" spans="5:9" ht="75" x14ac:dyDescent="0.25">
       <c r="E48" s="8" t="s">
+        <v>343</v>
+      </c>
+      <c r="F48" s="8" t="s">
         <v>344</v>
       </c>
-      <c r="F48" s="8" t="s">
-        <v>345</v>
-      </c>
       <c r="G48" s="8" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="H48" s="8" t="s">
         <v>131</v>
       </c>
       <c r="I48" s="12" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
     </row>
     <row r="49" spans="5:9" ht="30" x14ac:dyDescent="0.25">
       <c r="E49" s="8" t="s">
-        <v>352</v>
+        <v>351</v>
       </c>
       <c r="F49" s="8" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
       <c r="G49" s="8" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="H49" s="8" t="s">
         <v>105</v>
       </c>
       <c r="I49" s="12" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
     </row>
     <row r="50" spans="5:9" ht="45" x14ac:dyDescent="0.25">
       <c r="E50" s="8" t="s">
+        <v>356</v>
+      </c>
+      <c r="F50" s="8" t="s">
         <v>357</v>
       </c>
-      <c r="F50" s="8" t="s">
-        <v>358</v>
-      </c>
       <c r="G50" s="8" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="H50" s="8" t="s">
         <v>105</v>
       </c>
       <c r="I50" s="12" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
     </row>
     <row r="51" spans="5:9" ht="60" x14ac:dyDescent="0.25">
       <c r="E51" s="8" t="s">
+        <v>364</v>
+      </c>
+      <c r="F51" s="8" t="s">
         <v>365</v>
       </c>
-      <c r="F51" s="8" t="s">
-        <v>366</v>
-      </c>
       <c r="G51" s="8" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="H51" s="8" t="s">
         <v>105</v>
       </c>
       <c r="I51" s="12" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
     </row>
     <row r="52" spans="5:9" ht="75" x14ac:dyDescent="0.25">
       <c r="E52" s="8" t="s">
-        <v>370</v>
+        <v>369</v>
       </c>
       <c r="F52" s="8" t="s">
-        <v>406</v>
+        <v>405</v>
       </c>
       <c r="G52" s="8" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="H52" s="8" t="s">
         <v>126</v>
       </c>
       <c r="I52" s="12" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
     </row>
     <row r="53" spans="5:9" ht="135" x14ac:dyDescent="0.25">
       <c r="E53" s="8" t="s">
+        <v>478</v>
+      </c>
+      <c r="F53" s="8" t="s">
         <v>479</v>
       </c>
-      <c r="F53" s="8" t="s">
-        <v>480</v>
-      </c>
       <c r="G53" s="8" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="H53" s="8" t="s">
         <v>126</v>
       </c>
       <c r="I53" s="12" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
     </row>
     <row r="54" spans="5:9" ht="135" x14ac:dyDescent="0.25">
       <c r="E54" s="8" t="s">
-        <v>478</v>
+        <v>477</v>
       </c>
       <c r="F54" s="8" t="s">
-        <v>481</v>
+        <v>480</v>
       </c>
       <c r="G54" s="8" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="H54" s="8" t="s">
         <v>126</v>
       </c>
       <c r="I54" s="12" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
     </row>
     <row r="55" spans="5:9" ht="60" x14ac:dyDescent="0.25">
       <c r="E55" s="8" t="s">
+        <v>392</v>
+      </c>
+      <c r="F55" s="8" t="s">
         <v>393</v>
       </c>
-      <c r="F55" s="8" t="s">
-        <v>394</v>
-      </c>
       <c r="G55" s="8" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="H55" s="8" t="s">
         <v>126</v>
@@ -6259,149 +6259,149 @@
     </row>
     <row r="56" spans="5:9" ht="75" x14ac:dyDescent="0.25">
       <c r="E56" s="8" t="s">
+        <v>374</v>
+      </c>
+      <c r="F56" s="8" t="s">
         <v>375</v>
       </c>
-      <c r="F56" s="8" t="s">
-        <v>376</v>
-      </c>
       <c r="G56" s="8" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="H56" s="8" t="s">
         <v>130</v>
       </c>
       <c r="I56" s="12" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
     </row>
     <row r="57" spans="5:9" ht="75" x14ac:dyDescent="0.25">
       <c r="E57" s="8" t="s">
+        <v>381</v>
+      </c>
+      <c r="F57" s="8" t="s">
         <v>382</v>
       </c>
-      <c r="F57" s="8" t="s">
+      <c r="G57" s="8" t="s">
         <v>383</v>
-      </c>
-      <c r="G57" s="8" t="s">
-        <v>384</v>
       </c>
       <c r="H57" s="8" t="s">
         <v>85</v>
       </c>
       <c r="I57" s="12" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
     </row>
     <row r="58" spans="5:9" ht="45" x14ac:dyDescent="0.25">
       <c r="E58" s="8" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
       <c r="F58" s="8" t="s">
-        <v>399</v>
+        <v>398</v>
       </c>
       <c r="G58" s="8" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="H58" s="8" t="s">
         <v>85</v>
       </c>
       <c r="I58" s="12" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
     </row>
     <row r="59" spans="5:9" ht="105" x14ac:dyDescent="0.25">
       <c r="E59" s="8" t="s">
+        <v>396</v>
+      </c>
+      <c r="F59" s="8" t="s">
         <v>397</v>
       </c>
-      <c r="F59" s="8" t="s">
-        <v>398</v>
-      </c>
       <c r="G59" s="8" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="H59" s="8" t="s">
         <v>85</v>
       </c>
       <c r="I59" s="12" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
     </row>
     <row r="60" spans="5:9" ht="30" x14ac:dyDescent="0.25">
       <c r="E60" s="8" t="s">
+        <v>401</v>
+      </c>
+      <c r="F60" s="8" t="s">
         <v>402</v>
       </c>
-      <c r="F60" s="8" t="s">
-        <v>403</v>
-      </c>
       <c r="G60" s="8" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="H60" s="8" t="s">
         <v>85</v>
       </c>
       <c r="I60" s="12" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
     </row>
     <row r="61" spans="5:9" ht="105" x14ac:dyDescent="0.25">
       <c r="E61" s="8" t="s">
-        <v>405</v>
+        <v>404</v>
       </c>
       <c r="F61" s="8" t="s">
-        <v>534</v>
+        <v>533</v>
       </c>
       <c r="G61" s="8" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="H61" s="8" t="s">
         <v>94</v>
       </c>
       <c r="I61" s="12" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
     </row>
     <row r="62" spans="5:9" ht="60" x14ac:dyDescent="0.25">
       <c r="E62" s="8" t="s">
+        <v>409</v>
+      </c>
+      <c r="F62" s="8" t="s">
         <v>410</v>
       </c>
-      <c r="F62" s="8" t="s">
-        <v>411</v>
-      </c>
       <c r="G62" s="8" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="H62" s="8" t="s">
         <v>94</v>
       </c>
       <c r="I62" s="12" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
     </row>
     <row r="63" spans="5:9" ht="90" x14ac:dyDescent="0.25">
       <c r="E63" s="8" t="s">
+        <v>429</v>
+      </c>
+      <c r="F63" s="8" t="s">
         <v>430</v>
       </c>
-      <c r="F63" s="8" t="s">
-        <v>431</v>
-      </c>
       <c r="G63" s="8" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="H63" s="8" t="s">
         <v>94</v>
       </c>
       <c r="I63" s="12" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
     </row>
     <row r="64" spans="5:9" ht="105" x14ac:dyDescent="0.25">
       <c r="E64" s="8" t="s">
-        <v>533</v>
+        <v>532</v>
       </c>
       <c r="F64" s="8" t="s">
-        <v>535</v>
+        <v>534</v>
       </c>
       <c r="G64" s="8" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="H64" s="8" t="s">
         <v>94</v>
@@ -6412,206 +6412,206 @@
     </row>
     <row r="65" spans="5:9" ht="45" x14ac:dyDescent="0.25">
       <c r="E65" s="8" t="s">
-        <v>538</v>
+        <v>537</v>
       </c>
       <c r="F65" s="8" t="s">
-        <v>433</v>
+        <v>432</v>
       </c>
       <c r="G65" s="8" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="H65" s="8" t="s">
         <v>13</v>
       </c>
       <c r="I65" s="12" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
     </row>
     <row r="66" spans="5:9" ht="105" x14ac:dyDescent="0.25">
       <c r="E66" s="8" t="s">
+        <v>434</v>
+      </c>
+      <c r="F66" s="8" t="s">
         <v>435</v>
       </c>
-      <c r="F66" s="8" t="s">
-        <v>436</v>
-      </c>
       <c r="G66" s="8" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="H66" s="8" t="s">
         <v>13</v>
       </c>
       <c r="I66" s="12" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
     </row>
     <row r="67" spans="5:9" ht="45" x14ac:dyDescent="0.25">
       <c r="E67" s="8" t="s">
-        <v>440</v>
+        <v>439</v>
       </c>
       <c r="F67" s="8" t="s">
-        <v>442</v>
+        <v>441</v>
       </c>
       <c r="G67" s="8" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="H67" s="8" t="s">
         <v>102</v>
       </c>
       <c r="I67" s="12" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
     </row>
     <row r="68" spans="5:9" ht="45" x14ac:dyDescent="0.25">
       <c r="E68" s="8" t="s">
-        <v>441</v>
+        <v>440</v>
       </c>
       <c r="F68" s="8" t="s">
-        <v>443</v>
+        <v>442</v>
       </c>
       <c r="G68" s="8" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="H68" s="8" t="s">
         <v>102</v>
       </c>
       <c r="I68" s="12" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
     </row>
     <row r="69" spans="5:9" ht="165" x14ac:dyDescent="0.25">
       <c r="E69" s="8" t="s">
-        <v>447</v>
+        <v>446</v>
       </c>
       <c r="F69" s="8" t="s">
-        <v>449</v>
+        <v>448</v>
       </c>
       <c r="G69" s="8" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="H69" s="8" t="s">
         <v>102</v>
       </c>
       <c r="I69" s="12" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
     </row>
     <row r="70" spans="5:9" ht="75" x14ac:dyDescent="0.25">
       <c r="E70" s="8" t="s">
-        <v>448</v>
+        <v>447</v>
       </c>
       <c r="F70" s="8" t="s">
-        <v>450</v>
+        <v>449</v>
       </c>
       <c r="G70" s="8" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="H70" s="8" t="s">
         <v>102</v>
       </c>
       <c r="I70" s="12" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
     </row>
     <row r="71" spans="5:9" ht="105" x14ac:dyDescent="0.25">
       <c r="E71" s="8" t="s">
-        <v>453</v>
+        <v>452</v>
       </c>
       <c r="F71" s="8" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
       <c r="G71" s="8" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="H71" s="8" t="s">
         <v>118</v>
       </c>
       <c r="I71" s="12" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
     </row>
     <row r="72" spans="5:9" ht="45" x14ac:dyDescent="0.25">
       <c r="E72" s="8" t="s">
+        <v>456</v>
+      </c>
+      <c r="F72" s="8" t="s">
         <v>457</v>
       </c>
-      <c r="F72" s="8" t="s">
-        <v>458</v>
-      </c>
       <c r="G72" s="8" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c r="H72" s="8" t="s">
         <v>118</v>
       </c>
       <c r="I72" s="12" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
     </row>
     <row r="73" spans="5:9" ht="75" x14ac:dyDescent="0.25">
       <c r="E73" s="8" t="s">
+        <v>463</v>
+      </c>
+      <c r="F73" s="8" t="s">
         <v>464</v>
       </c>
-      <c r="F73" s="8" t="s">
-        <v>465</v>
-      </c>
       <c r="G73" s="8" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c r="H73" s="8" t="s">
         <v>118</v>
       </c>
       <c r="I73" s="12" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
     </row>
     <row r="74" spans="5:9" ht="75" x14ac:dyDescent="0.25">
       <c r="E74" s="8" t="s">
+        <v>460</v>
+      </c>
+      <c r="F74" s="8" t="s">
         <v>461</v>
       </c>
-      <c r="F74" s="8" t="s">
-        <v>462</v>
-      </c>
       <c r="G74" s="8" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="H74" s="8" t="s">
         <v>118</v>
       </c>
       <c r="I74" s="12" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
     </row>
     <row r="75" spans="5:9" ht="45" x14ac:dyDescent="0.25">
       <c r="E75" s="8" t="s">
+        <v>508</v>
+      </c>
+      <c r="F75" s="8" t="s">
         <v>509</v>
       </c>
-      <c r="F75" s="8" t="s">
-        <v>510</v>
-      </c>
       <c r="G75" s="8" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="H75" s="8" t="s">
         <v>118</v>
       </c>
       <c r="I75" s="12" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
     </row>
     <row r="76" spans="5:9" ht="120" x14ac:dyDescent="0.25">
       <c r="E76" s="8" t="s">
+        <v>511</v>
+      </c>
+      <c r="F76" s="8" t="s">
         <v>512</v>
       </c>
-      <c r="F76" s="8" t="s">
-        <v>513</v>
-      </c>
       <c r="G76" s="8" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="H76" s="8" t="s">
         <v>118</v>
       </c>
       <c r="I76" s="12" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
     </row>
   </sheetData>
